--- a/Rekap PNBP September 2021.xlsx
+++ b/Rekap PNBP September 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danyp\Desktop\Streamlit2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930C268B-2CE6-4D40-B6DF-E767DDA93EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF05551F-196A-4F8B-AB4B-5B10994D6355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" tabRatio="592" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6783" uniqueCount="1721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6784" uniqueCount="1722">
   <si>
     <t>Izin Akuntan Publik</t>
   </si>
@@ -5267,6 +5267,9 @@
   </si>
   <si>
     <t>Rupiah</t>
+  </si>
+  <si>
+    <t>Bulan1</t>
   </si>
 </sst>
 </file>
@@ -6329,7 +6332,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="854">
+  <cellXfs count="856">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -7955,6 +7958,126 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="26" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7982,125 +8105,125 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="26" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8126,126 +8249,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8264,6 +8267,138 @@
     <xf numFmtId="0" fontId="21" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="26" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8288,151 +8423,94 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="38" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="39" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="18" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8448,80 +8526,59 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="38" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="39" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8529,62 +8586,17 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8613,13 +8625,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -9065,64 +9074,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="734" t="s">
+      <c r="A1" s="778" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="734"/>
-      <c r="C1" s="734"/>
-      <c r="D1" s="734"/>
-      <c r="E1" s="734"/>
-      <c r="F1" s="734"/>
-      <c r="G1" s="734"/>
-      <c r="H1" s="734"/>
-      <c r="I1" s="735"/>
-      <c r="J1" s="734"/>
-      <c r="K1" s="734"/>
-      <c r="L1" s="734"/>
-      <c r="M1" s="734"/>
-      <c r="N1" s="734"/>
+      <c r="B1" s="778"/>
+      <c r="C1" s="778"/>
+      <c r="D1" s="778"/>
+      <c r="E1" s="778"/>
+      <c r="F1" s="778"/>
+      <c r="G1" s="778"/>
+      <c r="H1" s="778"/>
+      <c r="I1" s="779"/>
+      <c r="J1" s="778"/>
+      <c r="K1" s="778"/>
+      <c r="L1" s="778"/>
+      <c r="M1" s="778"/>
+      <c r="N1" s="778"/>
       <c r="O1" s="181"/>
       <c r="P1" s="181"/>
       <c r="Q1" s="181"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="736" t="s">
+      <c r="A2" s="780" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="736"/>
-      <c r="C2" s="736"/>
-      <c r="D2" s="736"/>
-      <c r="E2" s="736"/>
-      <c r="F2" s="736"/>
-      <c r="G2" s="736"/>
-      <c r="H2" s="736"/>
-      <c r="I2" s="737"/>
-      <c r="J2" s="736"/>
-      <c r="K2" s="736"/>
-      <c r="L2" s="736"/>
-      <c r="M2" s="736"/>
-      <c r="N2" s="736"/>
+      <c r="B2" s="780"/>
+      <c r="C2" s="780"/>
+      <c r="D2" s="780"/>
+      <c r="E2" s="780"/>
+      <c r="F2" s="780"/>
+      <c r="G2" s="780"/>
+      <c r="H2" s="780"/>
+      <c r="I2" s="781"/>
+      <c r="J2" s="780"/>
+      <c r="K2" s="780"/>
+      <c r="L2" s="780"/>
+      <c r="M2" s="780"/>
+      <c r="N2" s="780"/>
       <c r="O2" s="194"/>
       <c r="P2" s="194"/>
       <c r="Q2" s="194"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="738" t="s">
+      <c r="A3" s="782" t="s">
         <v>1423</v>
       </c>
-      <c r="B3" s="738"/>
-      <c r="C3" s="738"/>
-      <c r="D3" s="738"/>
-      <c r="E3" s="738"/>
-      <c r="F3" s="738"/>
-      <c r="G3" s="738"/>
-      <c r="H3" s="738"/>
-      <c r="I3" s="737"/>
-      <c r="J3" s="738"/>
-      <c r="K3" s="738"/>
-      <c r="L3" s="738"/>
-      <c r="M3" s="738"/>
-      <c r="N3" s="738"/>
+      <c r="B3" s="782"/>
+      <c r="C3" s="782"/>
+      <c r="D3" s="782"/>
+      <c r="E3" s="782"/>
+      <c r="F3" s="782"/>
+      <c r="G3" s="782"/>
+      <c r="H3" s="782"/>
+      <c r="I3" s="781"/>
+      <c r="J3" s="782"/>
+      <c r="K3" s="782"/>
+      <c r="L3" s="782"/>
+      <c r="M3" s="782"/>
+      <c r="N3" s="782"/>
       <c r="O3" s="195"/>
       <c r="P3" s="195"/>
       <c r="Q3" s="195"/>
@@ -14446,19 +14455,19 @@
     </row>
     <row r="129" spans="1:15" s="175" customFormat="1" ht="27.75" customHeight="1">
       <c r="A129" s="211"/>
-      <c r="B129" s="739" t="s">
+      <c r="B129" s="783" t="s">
         <v>123</v>
       </c>
-      <c r="C129" s="740"/>
-      <c r="D129" s="740"/>
-      <c r="E129" s="740"/>
-      <c r="F129" s="740"/>
-      <c r="G129" s="740"/>
-      <c r="H129" s="740"/>
-      <c r="I129" s="740"/>
-      <c r="J129" s="740"/>
-      <c r="K129" s="740"/>
-      <c r="L129" s="741"/>
+      <c r="C129" s="784"/>
+      <c r="D129" s="784"/>
+      <c r="E129" s="784"/>
+      <c r="F129" s="784"/>
+      <c r="G129" s="784"/>
+      <c r="H129" s="784"/>
+      <c r="I129" s="784"/>
+      <c r="J129" s="784"/>
+      <c r="K129" s="784"/>
+      <c r="L129" s="785"/>
       <c r="M129" s="280">
         <f>SUM(M7:M128)</f>
         <v>151966160</v>
@@ -14504,11 +14513,11 @@
     </row>
     <row r="133" spans="1:15">
       <c r="A133" s="224"/>
-      <c r="B133" s="742" t="s">
+      <c r="B133" s="766" t="s">
         <v>128</v>
       </c>
-      <c r="C133" s="743"/>
-      <c r="D133" s="744"/>
+      <c r="C133" s="767"/>
+      <c r="D133" s="768"/>
       <c r="E133" s="225"/>
       <c r="F133" s="225"/>
       <c r="G133" s="226"/>
@@ -14520,11 +14529,11 @@
       <c r="A134" s="228">
         <v>1</v>
       </c>
-      <c r="B134" s="745" t="s">
+      <c r="B134" s="775" t="s">
         <v>0</v>
       </c>
-      <c r="C134" s="746"/>
-      <c r="D134" s="747"/>
+      <c r="C134" s="776"/>
+      <c r="D134" s="777"/>
       <c r="E134" s="229">
         <f>COUNTIF($N$7:$N$169,"Izin Akuntan Publik")</f>
         <v>7</v>
@@ -14544,11 +14553,11 @@
       <c r="A135" s="228">
         <v>2</v>
       </c>
-      <c r="B135" s="748" t="s">
+      <c r="B135" s="769" t="s">
         <v>1</v>
       </c>
-      <c r="C135" s="749"/>
-      <c r="D135" s="750"/>
+      <c r="C135" s="770"/>
+      <c r="D135" s="771"/>
       <c r="E135" s="229">
         <f>COUNTIF($N$7:$N$169,"Perpanjangan Izin Akuntan Publik")</f>
         <v>60</v>
@@ -14568,11 +14577,11 @@
       <c r="A136" s="228">
         <v>3</v>
       </c>
-      <c r="B136" s="748" t="s">
+      <c r="B136" s="769" t="s">
         <v>129</v>
       </c>
-      <c r="C136" s="749"/>
-      <c r="D136" s="750"/>
+      <c r="C136" s="770"/>
+      <c r="D136" s="771"/>
       <c r="E136" s="229"/>
       <c r="F136" s="229"/>
       <c r="G136" s="230"/>
@@ -14583,11 +14592,11 @@
     </row>
     <row r="137" spans="1:15">
       <c r="A137" s="228"/>
-      <c r="B137" s="748" t="s">
+      <c r="B137" s="769" t="s">
         <v>130</v>
       </c>
-      <c r="C137" s="749"/>
-      <c r="D137" s="750"/>
+      <c r="C137" s="770"/>
+      <c r="D137" s="771"/>
       <c r="E137" s="229">
         <f>COUNTIF($N$7:$N$169,"Izin Usaha KAP Perseorangan")</f>
         <v>1</v>
@@ -14605,11 +14614,11 @@
     </row>
     <row r="138" spans="1:15">
       <c r="A138" s="228"/>
-      <c r="B138" s="748" t="s">
+      <c r="B138" s="769" t="s">
         <v>131</v>
       </c>
-      <c r="C138" s="749"/>
-      <c r="D138" s="750"/>
+      <c r="C138" s="770"/>
+      <c r="D138" s="771"/>
       <c r="E138" s="229">
         <f>COUNTIF($N$7:$N$169,"Izin Usaha KAP Jumlah Rekan 2-4 orang")</f>
         <v>3</v>
@@ -14627,11 +14636,11 @@
     </row>
     <row r="139" spans="1:15">
       <c r="A139" s="228"/>
-      <c r="B139" s="748" t="s">
+      <c r="B139" s="769" t="s">
         <v>132</v>
       </c>
-      <c r="C139" s="749"/>
-      <c r="D139" s="750"/>
+      <c r="C139" s="770"/>
+      <c r="D139" s="771"/>
       <c r="E139" s="229">
         <f>COUNTIF($N$7:$N$169,"Izin Usaha KAP Jumlah Rekan 5 orang atau lebih")</f>
         <v>0</v>
@@ -14651,11 +14660,11 @@
       <c r="A140" s="233">
         <v>4</v>
       </c>
-      <c r="B140" s="751" t="s">
+      <c r="B140" s="772" t="s">
         <v>5</v>
       </c>
-      <c r="C140" s="752"/>
-      <c r="D140" s="753"/>
+      <c r="C140" s="773"/>
+      <c r="D140" s="774"/>
       <c r="E140" s="229">
         <f>COUNTIF($N$7:$N$169,"Izin Pendirian Cabang Kantor Akuntan Publik")</f>
         <v>0</v>
@@ -14673,11 +14682,11 @@
     </row>
     <row r="141" spans="1:15">
       <c r="A141" s="236"/>
-      <c r="B141" s="754" t="s">
+      <c r="B141" s="763" t="s">
         <v>133</v>
       </c>
-      <c r="C141" s="755"/>
-      <c r="D141" s="756"/>
+      <c r="C141" s="764"/>
+      <c r="D141" s="765"/>
       <c r="E141" s="237"/>
       <c r="F141" s="237"/>
       <c r="G141" s="238"/>
@@ -14690,11 +14699,11 @@
     </row>
     <row r="142" spans="1:15">
       <c r="A142" s="240"/>
-      <c r="B142" s="742" t="s">
+      <c r="B142" s="766" t="s">
         <v>134</v>
       </c>
-      <c r="C142" s="743"/>
-      <c r="D142" s="744"/>
+      <c r="C142" s="767"/>
+      <c r="D142" s="768"/>
       <c r="E142" s="241"/>
       <c r="F142" s="241"/>
       <c r="G142" s="242"/>
@@ -14706,11 +14715,11 @@
       <c r="A143" s="228">
         <v>5</v>
       </c>
-      <c r="B143" s="757" t="s">
+      <c r="B143" s="745" t="s">
         <v>6</v>
       </c>
-      <c r="C143" s="758"/>
-      <c r="D143" s="759"/>
+      <c r="C143" s="746"/>
+      <c r="D143" s="747"/>
       <c r="E143" s="229">
         <f>COUNTIF($N$7:$N$169,"Persetujuan Pencantuman Nama KAPA atau OAA Bersama-Sama dengan nama KAP")</f>
         <v>1</v>
@@ -14752,11 +14761,11 @@
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="246"/>
-      <c r="B145" s="754" t="s">
+      <c r="B145" s="763" t="s">
         <v>135</v>
       </c>
-      <c r="C145" s="755"/>
-      <c r="D145" s="756"/>
+      <c r="C145" s="764"/>
+      <c r="D145" s="765"/>
       <c r="E145" s="247"/>
       <c r="F145" s="247"/>
       <c r="G145" s="248"/>
@@ -14769,11 +14778,11 @@
     </row>
     <row r="146" spans="1:14">
       <c r="A146" s="236"/>
-      <c r="B146" s="754" t="s">
+      <c r="B146" s="763" t="s">
         <v>136</v>
       </c>
-      <c r="C146" s="755"/>
-      <c r="D146" s="756"/>
+      <c r="C146" s="764"/>
+      <c r="D146" s="765"/>
       <c r="E146" s="237"/>
       <c r="F146" s="237"/>
       <c r="G146" s="238"/>
@@ -14804,11 +14813,11 @@
     </row>
     <row r="148" spans="1:14">
       <c r="A148" s="240"/>
-      <c r="B148" s="742" t="s">
+      <c r="B148" s="766" t="s">
         <v>137</v>
       </c>
-      <c r="C148" s="743"/>
-      <c r="D148" s="744"/>
+      <c r="C148" s="767"/>
+      <c r="D148" s="768"/>
       <c r="E148" s="241"/>
       <c r="F148" s="241"/>
       <c r="G148" s="242"/>
@@ -14820,11 +14829,11 @@
       <c r="A149" s="228">
         <v>7</v>
       </c>
-      <c r="B149" s="757" t="s">
+      <c r="B149" s="745" t="s">
         <v>8</v>
       </c>
-      <c r="C149" s="758"/>
-      <c r="D149" s="759"/>
+      <c r="C149" s="746"/>
+      <c r="D149" s="747"/>
       <c r="E149" s="229">
         <v>2</v>
       </c>
@@ -14842,11 +14851,11 @@
       <c r="A150" s="228">
         <v>8</v>
       </c>
-      <c r="B150" s="757" t="s">
+      <c r="B150" s="745" t="s">
         <v>9</v>
       </c>
-      <c r="C150" s="758"/>
-      <c r="D150" s="759"/>
+      <c r="C150" s="746"/>
+      <c r="D150" s="747"/>
       <c r="E150" s="229">
         <v>48</v>
       </c>
@@ -14864,11 +14873,11 @@
       <c r="A151" s="233">
         <v>9</v>
       </c>
-      <c r="B151" s="774" t="s">
+      <c r="B151" s="748" t="s">
         <v>10</v>
       </c>
-      <c r="C151" s="775"/>
-      <c r="D151" s="776"/>
+      <c r="C151" s="749"/>
+      <c r="D151" s="750"/>
       <c r="E151" s="234">
         <v>0</v>
       </c>
@@ -14884,11 +14893,11 @@
     </row>
     <row r="152" spans="1:14" ht="30" customHeight="1">
       <c r="A152" s="236"/>
-      <c r="B152" s="777" t="s">
+      <c r="B152" s="751" t="s">
         <v>139</v>
       </c>
-      <c r="C152" s="778"/>
-      <c r="D152" s="779"/>
+      <c r="C152" s="752"/>
+      <c r="D152" s="753"/>
       <c r="E152" s="237"/>
       <c r="F152" s="237"/>
       <c r="G152" s="259"/>
@@ -14903,11 +14912,11 @@
       <c r="A153" s="261">
         <v>10</v>
       </c>
-      <c r="B153" s="780" t="s">
+      <c r="B153" s="754" t="s">
         <v>140</v>
       </c>
-      <c r="C153" s="781"/>
-      <c r="D153" s="782"/>
+      <c r="C153" s="755"/>
+      <c r="D153" s="756"/>
       <c r="E153" s="262">
         <v>0</v>
       </c>
@@ -14923,11 +14932,11 @@
       <c r="A154" s="265">
         <v>11</v>
       </c>
-      <c r="B154" s="783" t="s">
+      <c r="B154" s="757" t="s">
         <v>577</v>
       </c>
-      <c r="C154" s="784"/>
-      <c r="D154" s="785"/>
+      <c r="C154" s="758"/>
+      <c r="D154" s="759"/>
       <c r="E154" s="263">
         <v>0</v>
       </c>
@@ -14941,11 +14950,11 @@
       <c r="A155" s="265">
         <v>12</v>
       </c>
-      <c r="B155" s="763" t="s">
+      <c r="B155" s="734" t="s">
         <v>1039</v>
       </c>
-      <c r="C155" s="764"/>
-      <c r="D155" s="765"/>
+      <c r="C155" s="735"/>
+      <c r="D155" s="736"/>
       <c r="E155" s="263">
         <v>0</v>
       </c>
@@ -14959,11 +14968,11 @@
       <c r="A156" s="268">
         <v>13</v>
       </c>
-      <c r="B156" s="766" t="s">
+      <c r="B156" s="737" t="s">
         <v>141</v>
       </c>
-      <c r="C156" s="767"/>
-      <c r="D156" s="768"/>
+      <c r="C156" s="738"/>
+      <c r="D156" s="739"/>
       <c r="E156" s="269">
         <v>0</v>
       </c>
@@ -14974,12 +14983,12 @@
       <c r="J156" s="291"/>
     </row>
     <row r="157" spans="1:14">
-      <c r="A157" s="769" t="s">
+      <c r="A157" s="740" t="s">
         <v>142</v>
       </c>
-      <c r="B157" s="770"/>
-      <c r="C157" s="770"/>
-      <c r="D157" s="771"/>
+      <c r="B157" s="741"/>
+      <c r="C157" s="741"/>
+      <c r="D157" s="742"/>
       <c r="E157" s="272">
         <f>SUM(E134:E153)</f>
         <v>122</v>
@@ -14994,12 +15003,12 @@
       <c r="J157" s="294"/>
     </row>
     <row r="158" spans="1:14">
-      <c r="A158" s="772" t="s">
+      <c r="A158" s="743" t="s">
         <v>143</v>
       </c>
-      <c r="B158" s="773"/>
-      <c r="C158" s="773"/>
-      <c r="D158" s="771"/>
+      <c r="B158" s="744"/>
+      <c r="C158" s="744"/>
+      <c r="D158" s="742"/>
       <c r="E158" s="216">
         <f>SUM(E134:E153)</f>
         <v>122</v>
@@ -15022,9 +15031,9 @@
         <v>11</v>
       </c>
       <c r="C160" s="787"/>
-      <c r="D160" s="788"/>
-      <c r="E160" s="789"/>
-      <c r="F160" s="790"/>
+      <c r="D160" s="790"/>
+      <c r="E160" s="788"/>
+      <c r="F160" s="789"/>
       <c r="G160" s="275"/>
       <c r="H160" s="276">
         <f>H146</f>
@@ -15038,9 +15047,9 @@
         <v>13</v>
       </c>
       <c r="C161" s="787"/>
-      <c r="D161" s="789"/>
-      <c r="E161" s="789"/>
-      <c r="F161" s="790"/>
+      <c r="D161" s="788"/>
+      <c r="E161" s="788"/>
+      <c r="F161" s="789"/>
       <c r="G161" s="275"/>
       <c r="H161" s="276">
         <f t="shared" ref="H161:H165" si="1">H152</f>
@@ -15054,9 +15063,9 @@
         <v>1228</v>
       </c>
       <c r="C162" s="787"/>
-      <c r="D162" s="788"/>
-      <c r="E162" s="789"/>
-      <c r="F162" s="790"/>
+      <c r="D162" s="790"/>
+      <c r="E162" s="788"/>
+      <c r="F162" s="789"/>
       <c r="G162" s="275"/>
       <c r="H162" s="276">
         <f t="shared" si="1"/>
@@ -15070,9 +15079,9 @@
         <v>12</v>
       </c>
       <c r="C163" s="787"/>
-      <c r="D163" s="788"/>
-      <c r="E163" s="789"/>
-      <c r="F163" s="790"/>
+      <c r="D163" s="790"/>
+      <c r="E163" s="788"/>
+      <c r="F163" s="789"/>
       <c r="G163" s="275"/>
       <c r="H163" s="276">
         <f t="shared" si="1"/>
@@ -15086,9 +15095,9 @@
         <v>1040</v>
       </c>
       <c r="C164" s="787"/>
-      <c r="D164" s="788"/>
-      <c r="E164" s="789"/>
-      <c r="F164" s="790"/>
+      <c r="D164" s="790"/>
+      <c r="E164" s="788"/>
+      <c r="F164" s="789"/>
       <c r="G164" s="275"/>
       <c r="H164" s="276">
         <f t="shared" si="1"/>
@@ -15102,9 +15111,9 @@
         <v>1229</v>
       </c>
       <c r="C165" s="787"/>
-      <c r="D165" s="788"/>
-      <c r="E165" s="789"/>
-      <c r="F165" s="790"/>
+      <c r="D165" s="790"/>
+      <c r="E165" s="788"/>
+      <c r="F165" s="789"/>
       <c r="G165" s="275"/>
       <c r="H165" s="276">
         <f t="shared" si="1"/>
@@ -15130,41 +15139,41 @@
   </sheetData>
   <autoFilter ref="A6:Q129" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
   <mergeCells count="35">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="B129:L129"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B134:D134"/>
+    <mergeCell ref="B135:D135"/>
+    <mergeCell ref="B136:D136"/>
+    <mergeCell ref="B137:D137"/>
+    <mergeCell ref="B138:D138"/>
+    <mergeCell ref="B139:D139"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="B141:D141"/>
+    <mergeCell ref="B142:D142"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="B144:D144"/>
+    <mergeCell ref="B145:D145"/>
+    <mergeCell ref="B146:D146"/>
+    <mergeCell ref="B148:D148"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="B150:D150"/>
+    <mergeCell ref="B151:D151"/>
+    <mergeCell ref="B152:D152"/>
+    <mergeCell ref="B153:D153"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="B155:D155"/>
+    <mergeCell ref="B156:D156"/>
+    <mergeCell ref="A157:D157"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="B160:F160"/>
     <mergeCell ref="B161:F161"/>
     <mergeCell ref="B162:F162"/>
     <mergeCell ref="B163:F163"/>
     <mergeCell ref="B164:F164"/>
     <mergeCell ref="B165:F165"/>
-    <mergeCell ref="B155:D155"/>
-    <mergeCell ref="B156:D156"/>
-    <mergeCell ref="A157:D157"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="B160:F160"/>
-    <mergeCell ref="B150:D150"/>
-    <mergeCell ref="B151:D151"/>
-    <mergeCell ref="B152:D152"/>
-    <mergeCell ref="B153:D153"/>
-    <mergeCell ref="B154:D154"/>
-    <mergeCell ref="B144:D144"/>
-    <mergeCell ref="B145:D145"/>
-    <mergeCell ref="B146:D146"/>
-    <mergeCell ref="B148:D148"/>
-    <mergeCell ref="B149:D149"/>
-    <mergeCell ref="B139:D139"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="B141:D141"/>
-    <mergeCell ref="B142:D142"/>
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="B134:D134"/>
-    <mergeCell ref="B135:D135"/>
-    <mergeCell ref="B136:D136"/>
-    <mergeCell ref="B137:D137"/>
-    <mergeCell ref="B138:D138"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="B129:L129"/>
-    <mergeCell ref="B133:D133"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.196850393700787" footer="0.196850393700787"/>
   <pageSetup paperSize="9" scale="52" orientation="landscape" r:id="rId1"/>
@@ -15181,8 +15190,8 @@
   </sheetPr>
   <dimension ref="A1:AG42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="O3" zoomScale="60" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="AE26" sqref="AE26"/>
+    <sheetView view="pageBreakPreview" topLeftCell="B4" zoomScale="60" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -15216,181 +15225,181 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
-      <c r="A1" s="791" t="s">
+      <c r="A1" s="816" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="791"/>
-      <c r="C1" s="791"/>
-      <c r="D1" s="791"/>
-      <c r="E1" s="791"/>
-      <c r="F1" s="791"/>
-      <c r="G1" s="791"/>
-      <c r="H1" s="791"/>
-      <c r="I1" s="791"/>
-      <c r="J1" s="791"/>
-      <c r="K1" s="791"/>
-      <c r="L1" s="791"/>
-      <c r="M1" s="791"/>
-      <c r="N1" s="791"/>
-      <c r="O1" s="791"/>
-      <c r="P1" s="791"/>
-      <c r="Q1" s="791"/>
-      <c r="R1" s="791"/>
-      <c r="S1" s="791"/>
-      <c r="T1" s="791"/>
-      <c r="U1" s="791"/>
-      <c r="V1" s="791"/>
-      <c r="W1" s="791"/>
-      <c r="X1" s="791"/>
-      <c r="Y1" s="791"/>
-      <c r="Z1" s="791"/>
-      <c r="AA1" s="791"/>
-      <c r="AB1" s="791"/>
-      <c r="AC1" s="791"/>
-      <c r="AD1" s="791"/>
-      <c r="AE1" s="791"/>
+      <c r="B1" s="816"/>
+      <c r="C1" s="816"/>
+      <c r="D1" s="816"/>
+      <c r="E1" s="816"/>
+      <c r="F1" s="816"/>
+      <c r="G1" s="816"/>
+      <c r="H1" s="816"/>
+      <c r="I1" s="816"/>
+      <c r="J1" s="816"/>
+      <c r="K1" s="816"/>
+      <c r="L1" s="816"/>
+      <c r="M1" s="816"/>
+      <c r="N1" s="816"/>
+      <c r="O1" s="816"/>
+      <c r="P1" s="816"/>
+      <c r="Q1" s="816"/>
+      <c r="R1" s="816"/>
+      <c r="S1" s="816"/>
+      <c r="T1" s="816"/>
+      <c r="U1" s="816"/>
+      <c r="V1" s="816"/>
+      <c r="W1" s="816"/>
+      <c r="X1" s="816"/>
+      <c r="Y1" s="816"/>
+      <c r="Z1" s="816"/>
+      <c r="AA1" s="816"/>
+      <c r="AB1" s="816"/>
+      <c r="AC1" s="816"/>
+      <c r="AD1" s="816"/>
+      <c r="AE1" s="816"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="792" t="s">
+      <c r="A2" s="817" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="792"/>
-      <c r="C2" s="792"/>
-      <c r="D2" s="792"/>
-      <c r="E2" s="792"/>
-      <c r="F2" s="792"/>
-      <c r="G2" s="792"/>
-      <c r="H2" s="792"/>
-      <c r="I2" s="792"/>
-      <c r="J2" s="792"/>
-      <c r="K2" s="792"/>
-      <c r="L2" s="792"/>
-      <c r="M2" s="792"/>
-      <c r="N2" s="792"/>
-      <c r="O2" s="792"/>
-      <c r="P2" s="792"/>
-      <c r="Q2" s="792"/>
-      <c r="R2" s="792"/>
-      <c r="S2" s="792"/>
-      <c r="T2" s="792"/>
-      <c r="U2" s="792"/>
-      <c r="V2" s="792"/>
-      <c r="W2" s="792"/>
-      <c r="X2" s="792"/>
-      <c r="Y2" s="792"/>
-      <c r="Z2" s="792"/>
-      <c r="AA2" s="792"/>
-      <c r="AB2" s="792"/>
-      <c r="AC2" s="792"/>
-      <c r="AD2" s="792"/>
-      <c r="AE2" s="792"/>
+      <c r="B2" s="817"/>
+      <c r="C2" s="817"/>
+      <c r="D2" s="817"/>
+      <c r="E2" s="817"/>
+      <c r="F2" s="817"/>
+      <c r="G2" s="817"/>
+      <c r="H2" s="817"/>
+      <c r="I2" s="817"/>
+      <c r="J2" s="817"/>
+      <c r="K2" s="817"/>
+      <c r="L2" s="817"/>
+      <c r="M2" s="817"/>
+      <c r="N2" s="817"/>
+      <c r="O2" s="817"/>
+      <c r="P2" s="817"/>
+      <c r="Q2" s="817"/>
+      <c r="R2" s="817"/>
+      <c r="S2" s="817"/>
+      <c r="T2" s="817"/>
+      <c r="U2" s="817"/>
+      <c r="V2" s="817"/>
+      <c r="W2" s="817"/>
+      <c r="X2" s="817"/>
+      <c r="Y2" s="817"/>
+      <c r="Z2" s="817"/>
+      <c r="AA2" s="817"/>
+      <c r="AB2" s="817"/>
+      <c r="AC2" s="817"/>
+      <c r="AD2" s="817"/>
+      <c r="AE2" s="817"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="793" t="s">
+      <c r="A3" s="818" t="s">
         <v>1621</v>
       </c>
-      <c r="B3" s="793"/>
-      <c r="C3" s="793"/>
-      <c r="D3" s="793"/>
-      <c r="E3" s="793"/>
-      <c r="F3" s="793"/>
-      <c r="G3" s="793"/>
-      <c r="H3" s="793"/>
-      <c r="I3" s="793"/>
-      <c r="J3" s="793"/>
-      <c r="K3" s="793"/>
-      <c r="L3" s="793"/>
-      <c r="M3" s="793"/>
-      <c r="N3" s="793"/>
-      <c r="O3" s="793"/>
-      <c r="P3" s="793"/>
-      <c r="Q3" s="793"/>
-      <c r="R3" s="793"/>
-      <c r="S3" s="793"/>
-      <c r="T3" s="793"/>
-      <c r="U3" s="793"/>
-      <c r="V3" s="793"/>
-      <c r="W3" s="793"/>
-      <c r="X3" s="793"/>
-      <c r="Y3" s="793"/>
-      <c r="Z3" s="793"/>
-      <c r="AA3" s="793"/>
-      <c r="AB3" s="793"/>
-      <c r="AC3" s="793"/>
-      <c r="AD3" s="793"/>
-      <c r="AE3" s="793"/>
+      <c r="B3" s="818"/>
+      <c r="C3" s="818"/>
+      <c r="D3" s="818"/>
+      <c r="E3" s="818"/>
+      <c r="F3" s="818"/>
+      <c r="G3" s="818"/>
+      <c r="H3" s="818"/>
+      <c r="I3" s="818"/>
+      <c r="J3" s="818"/>
+      <c r="K3" s="818"/>
+      <c r="L3" s="818"/>
+      <c r="M3" s="818"/>
+      <c r="N3" s="818"/>
+      <c r="O3" s="818"/>
+      <c r="P3" s="818"/>
+      <c r="Q3" s="818"/>
+      <c r="R3" s="818"/>
+      <c r="S3" s="818"/>
+      <c r="T3" s="818"/>
+      <c r="U3" s="818"/>
+      <c r="V3" s="818"/>
+      <c r="W3" s="818"/>
+      <c r="X3" s="818"/>
+      <c r="Y3" s="818"/>
+      <c r="Z3" s="818"/>
+      <c r="AA3" s="818"/>
+      <c r="AB3" s="818"/>
+      <c r="AC3" s="818"/>
+      <c r="AD3" s="818"/>
+      <c r="AE3" s="818"/>
     </row>
     <row r="5" spans="1:32">
-      <c r="A5" s="798" t="s">
+      <c r="A5" s="793" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="800" t="s">
+      <c r="B5" s="795" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="801"/>
-      <c r="D5" s="802"/>
-      <c r="E5" s="798" t="s">
+      <c r="C5" s="796"/>
+      <c r="D5" s="797"/>
+      <c r="E5" s="793" t="s">
         <v>126</v>
       </c>
-      <c r="F5" s="794" t="s">
+      <c r="F5" s="819" t="s">
         <v>1622</v>
       </c>
-      <c r="G5" s="795"/>
-      <c r="H5" s="794" t="s">
+      <c r="G5" s="820"/>
+      <c r="H5" s="819" t="s">
         <v>1623</v>
       </c>
-      <c r="I5" s="795"/>
-      <c r="J5" s="794" t="s">
+      <c r="I5" s="820"/>
+      <c r="J5" s="819" t="s">
         <v>1624</v>
       </c>
-      <c r="K5" s="795"/>
-      <c r="L5" s="794" t="s">
+      <c r="K5" s="820"/>
+      <c r="L5" s="819" t="s">
         <v>1625</v>
       </c>
-      <c r="M5" s="795"/>
-      <c r="N5" s="794" t="s">
+      <c r="M5" s="820"/>
+      <c r="N5" s="819" t="s">
         <v>1626</v>
       </c>
-      <c r="O5" s="795"/>
-      <c r="P5" s="794" t="s">
+      <c r="O5" s="820"/>
+      <c r="P5" s="819" t="s">
         <v>1627</v>
       </c>
-      <c r="Q5" s="795"/>
-      <c r="R5" s="794" t="s">
+      <c r="Q5" s="820"/>
+      <c r="R5" s="819" t="s">
         <v>1628</v>
       </c>
-      <c r="S5" s="795"/>
-      <c r="T5" s="794" t="s">
+      <c r="S5" s="820"/>
+      <c r="T5" s="819" t="s">
         <v>1629</v>
       </c>
-      <c r="U5" s="795"/>
-      <c r="V5" s="794" t="s">
+      <c r="U5" s="820"/>
+      <c r="V5" s="819" t="s">
         <v>1630</v>
       </c>
-      <c r="W5" s="795"/>
-      <c r="X5" s="794" t="s">
+      <c r="W5" s="820"/>
+      <c r="X5" s="819" t="s">
         <v>1631</v>
       </c>
-      <c r="Y5" s="795"/>
-      <c r="Z5" s="794" t="s">
+      <c r="Y5" s="820"/>
+      <c r="Z5" s="819" t="s">
         <v>1632</v>
       </c>
-      <c r="AA5" s="795"/>
-      <c r="AB5" s="794" t="s">
+      <c r="AA5" s="820"/>
+      <c r="AB5" s="819" t="s">
         <v>1633</v>
       </c>
-      <c r="AC5" s="795"/>
-      <c r="AD5" s="794" t="s">
+      <c r="AC5" s="820"/>
+      <c r="AD5" s="819" t="s">
         <v>1634</v>
       </c>
-      <c r="AE5" s="795"/>
+      <c r="AE5" s="820"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="799"/>
-      <c r="B6" s="803"/>
-      <c r="C6" s="804"/>
-      <c r="D6" s="805"/>
-      <c r="E6" s="799"/>
+      <c r="A6" s="794"/>
+      <c r="B6" s="798"/>
+      <c r="C6" s="799"/>
+      <c r="D6" s="800"/>
+      <c r="E6" s="794"/>
       <c r="F6" s="80" t="s">
         <v>125</v>
       </c>
@@ -16054,11 +16063,11 @@
     </row>
     <row r="16" spans="1:32" s="76" customFormat="1">
       <c r="A16" s="107"/>
-      <c r="B16" s="649" t="s">
+      <c r="B16" s="656" t="s">
         <v>133</v>
       </c>
-      <c r="C16" s="650"/>
-      <c r="D16" s="651"/>
+      <c r="C16" s="657"/>
+      <c r="D16" s="658"/>
       <c r="E16" s="108"/>
       <c r="F16" s="109">
         <f t="shared" ref="F16:G16" si="3">SUM(F9:F15)</f>
@@ -16205,11 +16214,11 @@
       <c r="A18" s="93">
         <v>5</v>
       </c>
-      <c r="B18" s="806" t="s">
+      <c r="B18" s="801" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="807"/>
-      <c r="D18" s="808"/>
+      <c r="C18" s="802"/>
+      <c r="D18" s="803"/>
       <c r="E18" s="115">
         <v>5000000</v>
       </c>
@@ -16269,11 +16278,11 @@
       <c r="A19" s="100">
         <v>6</v>
       </c>
-      <c r="B19" s="815" t="s">
+      <c r="B19" s="810" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="816"/>
-      <c r="D19" s="817"/>
+      <c r="C19" s="811"/>
+      <c r="D19" s="812"/>
       <c r="E19" s="115">
         <v>10000000</v>
       </c>
@@ -16331,11 +16340,11 @@
     </row>
     <row r="20" spans="1:33" s="77" customFormat="1" ht="19.5" customHeight="1">
       <c r="A20" s="116"/>
-      <c r="B20" s="818" t="s">
+      <c r="B20" s="813" t="s">
         <v>135</v>
       </c>
-      <c r="C20" s="819"/>
-      <c r="D20" s="820"/>
+      <c r="C20" s="814"/>
+      <c r="D20" s="815"/>
       <c r="E20" s="117"/>
       <c r="F20" s="118">
         <f t="shared" ref="F20:G20" si="7">SUM(F18:F19)</f>
@@ -16631,11 +16640,11 @@
       <c r="A24" s="93">
         <v>7</v>
       </c>
-      <c r="B24" s="806" t="s">
+      <c r="B24" s="801" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="807"/>
-      <c r="D24" s="808"/>
+      <c r="C24" s="802"/>
+      <c r="D24" s="803"/>
       <c r="E24" s="97">
         <v>1000000</v>
       </c>
@@ -16724,11 +16733,11 @@
       <c r="A25" s="93">
         <v>8</v>
       </c>
-      <c r="B25" s="806" t="s">
+      <c r="B25" s="801" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="807"/>
-      <c r="D25" s="808"/>
+      <c r="C25" s="802"/>
+      <c r="D25" s="803"/>
       <c r="E25" s="115" t="s">
         <v>138</v>
       </c>
@@ -16806,11 +16815,11 @@
       <c r="A26" s="100">
         <v>9</v>
       </c>
-      <c r="B26" s="809" t="s">
+      <c r="B26" s="804" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="810"/>
-      <c r="D26" s="811"/>
+      <c r="C26" s="805"/>
+      <c r="D26" s="806"/>
       <c r="E26" s="115" t="s">
         <v>138</v>
       </c>
@@ -16884,11 +16893,11 @@
     </row>
     <row r="27" spans="1:33" s="75" customFormat="1" ht="27.75" customHeight="1">
       <c r="A27" s="84"/>
-      <c r="B27" s="812" t="s">
+      <c r="B27" s="807" t="s">
         <v>139</v>
       </c>
-      <c r="C27" s="813"/>
-      <c r="D27" s="814"/>
+      <c r="C27" s="808"/>
+      <c r="D27" s="809"/>
       <c r="E27" s="136"/>
       <c r="F27" s="137">
         <f>SUM(F24:F26)</f>
@@ -16999,11 +17008,11 @@
       <c r="A28" s="140">
         <v>10</v>
       </c>
-      <c r="B28" s="796" t="s">
+      <c r="B28" s="791" t="s">
         <v>140</v>
       </c>
-      <c r="C28" s="797"/>
-      <c r="D28" s="797"/>
+      <c r="C28" s="792"/>
+      <c r="D28" s="792"/>
       <c r="E28" s="141" t="s">
         <v>138</v>
       </c>
@@ -17052,11 +17061,11 @@
       <c r="A29" s="140">
         <v>11</v>
       </c>
-      <c r="B29" s="796" t="s">
+      <c r="B29" s="791" t="s">
         <v>577</v>
       </c>
-      <c r="C29" s="797"/>
-      <c r="D29" s="797"/>
+      <c r="C29" s="792"/>
+      <c r="D29" s="792"/>
       <c r="E29" s="141"/>
       <c r="F29" s="142"/>
       <c r="G29" s="142"/>
@@ -17096,11 +17105,11 @@
       <c r="A30" s="140">
         <v>12</v>
       </c>
-      <c r="B30" s="796" t="s">
+      <c r="B30" s="791" t="s">
         <v>1039</v>
       </c>
-      <c r="C30" s="797"/>
-      <c r="D30" s="797"/>
+      <c r="C30" s="792"/>
+      <c r="D30" s="792"/>
       <c r="E30" s="141"/>
       <c r="F30" s="142"/>
       <c r="G30" s="142"/>
@@ -17141,11 +17150,11 @@
       <c r="A31" s="100">
         <v>13</v>
       </c>
-      <c r="B31" s="677" t="s">
+      <c r="B31" s="648" t="s">
         <v>141</v>
       </c>
-      <c r="C31" s="678"/>
-      <c r="D31" s="679"/>
+      <c r="C31" s="649"/>
+      <c r="D31" s="650"/>
       <c r="E31" s="115" t="s">
         <v>138</v>
       </c>
@@ -17506,21 +17515,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="B5:D6"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B24:D24"/>
     <mergeCell ref="A1:AE1"/>
     <mergeCell ref="A2:AE2"/>
     <mergeCell ref="A3:AE3"/>
@@ -17537,6 +17531,21 @@
     <mergeCell ref="Z5:AA5"/>
     <mergeCell ref="AB5:AC5"/>
     <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="B5:D6"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B24:D24"/>
   </mergeCells>
   <pageMargins left="0.511811023622047" right="0.118110236220472" top="0.55118110236220497" bottom="0.55118110236220497" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="29" orientation="landscape" r:id="rId1"/>
@@ -17551,10 +17560,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="71" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -17563,9 +17572,10 @@
     <col min="2" max="2" width="11.6328125" style="628" customWidth="1"/>
     <col min="3" max="3" width="11.1796875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7265625" style="855" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="624" t="s">
         <v>1716</v>
       </c>
@@ -17578,8 +17588,11 @@
       <c r="D1" s="625" t="s">
         <v>1719</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="854" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="629" t="s">
         <v>671</v>
       </c>
@@ -17592,8 +17605,11 @@
       <c r="D2" s="617">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="617">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="629" t="s">
         <v>1718</v>
       </c>
@@ -17606,8 +17622,11 @@
       <c r="D3" s="134">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="617">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="629" t="s">
         <v>1717</v>
       </c>
@@ -17620,8 +17639,11 @@
       <c r="D4" s="135">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="617">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="629" t="s">
         <v>671</v>
       </c>
@@ -17634,8 +17656,11 @@
       <c r="D5" s="617">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="617">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="629" t="s">
         <v>1718</v>
       </c>
@@ -17648,8 +17673,11 @@
       <c r="D6" s="134">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="617">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="629" t="s">
         <v>1717</v>
       </c>
@@ -17662,8 +17690,11 @@
       <c r="D7" s="135">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="617">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="629" t="s">
         <v>671</v>
       </c>
@@ -17676,8 +17707,11 @@
       <c r="D8" s="134">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="617">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="629" t="s">
         <v>1718</v>
       </c>
@@ -17690,8 +17724,11 @@
       <c r="D9" s="134">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="617">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="629" t="s">
         <v>1717</v>
       </c>
@@ -17704,8 +17741,11 @@
       <c r="D10" s="617">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="617">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="629" t="s">
         <v>671</v>
       </c>
@@ -17718,8 +17758,11 @@
       <c r="D11" s="617" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="617">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="629" t="s">
         <v>1718</v>
       </c>
@@ -17732,8 +17775,11 @@
       <c r="D12" s="617">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="617">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="629" t="s">
         <v>1717</v>
       </c>
@@ -17746,8 +17792,11 @@
       <c r="D13" s="617">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="617">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="629" t="s">
         <v>671</v>
       </c>
@@ -17760,8 +17809,11 @@
       <c r="D14" s="617">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="617">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="629" t="s">
         <v>1718</v>
       </c>
@@ -17774,8 +17826,11 @@
       <c r="D15" s="617">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="617">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="629" t="s">
         <v>1717</v>
       </c>
@@ -17788,8 +17843,11 @@
       <c r="D16" s="617">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="617">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="629" t="s">
         <v>671</v>
       </c>
@@ -17802,8 +17860,11 @@
       <c r="D17" s="617">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="617">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="629" t="s">
         <v>1718</v>
       </c>
@@ -17816,8 +17877,11 @@
       <c r="D18" s="617">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="617">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="629" t="s">
         <v>1717</v>
       </c>
@@ -17830,8 +17894,11 @@
       <c r="D19" s="617">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="617">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="629" t="s">
         <v>671</v>
       </c>
@@ -17844,8 +17911,11 @@
       <c r="D20" s="617">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="617">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="629" t="s">
         <v>1718</v>
       </c>
@@ -17858,8 +17928,11 @@
       <c r="D21" s="617">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="617">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="629" t="s">
         <v>1717</v>
       </c>
@@ -17872,8 +17945,11 @@
       <c r="D22" s="617">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="617">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="629" t="s">
         <v>671</v>
       </c>
@@ -17886,8 +17962,11 @@
       <c r="D23" s="617">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="617">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="629" t="s">
         <v>1718</v>
       </c>
@@ -17900,8 +17979,11 @@
       <c r="D24" s="617">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="617">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="629" t="s">
         <v>1717</v>
       </c>
@@ -17914,8 +17996,11 @@
       <c r="D25" s="617">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" s="617">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="629" t="s">
         <v>671</v>
       </c>
@@ -17928,8 +18013,11 @@
       <c r="D26" s="617">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" s="617">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="629" t="s">
         <v>1718</v>
       </c>
@@ -17942,8 +18030,11 @@
       <c r="D27" s="617">
         <v>48</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" s="617">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="629" t="s">
         <v>1717</v>
       </c>
@@ -17955,6 +18046,9 @@
       </c>
       <c r="D28" s="617">
         <v>0</v>
+      </c>
+      <c r="E28" s="617">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -18004,28 +18098,28 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="836" t="s">
+      <c r="A5" s="832" t="s">
         <v>1648</v>
       </c>
-      <c r="B5" s="837"/>
-      <c r="C5" s="838"/>
-      <c r="D5" s="834" t="s">
+      <c r="B5" s="833"/>
+      <c r="C5" s="834"/>
+      <c r="D5" s="830" t="s">
         <v>1649</v>
       </c>
-      <c r="E5" s="821" t="s">
+      <c r="E5" s="839" t="s">
         <v>1650</v>
       </c>
-      <c r="F5" s="822"/>
-      <c r="G5" s="821" t="s">
+      <c r="F5" s="840"/>
+      <c r="G5" s="839" t="s">
         <v>1651</v>
       </c>
-      <c r="H5" s="822"/>
+      <c r="H5" s="840"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="839"/>
-      <c r="B6" s="840"/>
-      <c r="C6" s="841"/>
-      <c r="D6" s="835"/>
+      <c r="A6" s="835"/>
+      <c r="B6" s="836"/>
+      <c r="C6" s="837"/>
+      <c r="D6" s="831"/>
       <c r="E6" s="27" t="s">
         <v>1652</v>
       </c>
@@ -18043,10 +18137,10 @@
       <c r="A7" s="29" t="s">
         <v>1654</v>
       </c>
-      <c r="B7" s="823" t="s">
+      <c r="B7" s="838" t="s">
         <v>1655</v>
       </c>
-      <c r="C7" s="824"/>
+      <c r="C7" s="841"/>
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
       <c r="F7" s="31"/>
@@ -18223,10 +18317,10 @@
       <c r="A15" s="29" t="s">
         <v>1664</v>
       </c>
-      <c r="B15" s="823" t="s">
+      <c r="B15" s="838" t="s">
         <v>1665</v>
       </c>
-      <c r="C15" s="823"/>
+      <c r="C15" s="838"/>
       <c r="D15" s="43"/>
       <c r="E15" s="41"/>
       <c r="F15" s="41"/>
@@ -18289,10 +18383,10 @@
       <c r="A18" s="29" t="s">
         <v>1668</v>
       </c>
-      <c r="B18" s="823" t="s">
+      <c r="B18" s="838" t="s">
         <v>1669</v>
       </c>
-      <c r="C18" s="823"/>
+      <c r="C18" s="838"/>
       <c r="D18" s="43"/>
       <c r="E18" s="41"/>
       <c r="F18" s="41"/>
@@ -18379,12 +18473,12 @@
       <c r="I21" s="73"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="825" t="s">
+      <c r="A22" s="821" t="s">
         <v>1672</v>
       </c>
-      <c r="B22" s="826"/>
-      <c r="C22" s="826"/>
-      <c r="D22" s="827"/>
+      <c r="B22" s="822"/>
+      <c r="C22" s="822"/>
+      <c r="D22" s="823"/>
       <c r="E22" s="55"/>
       <c r="F22" s="56"/>
       <c r="G22" s="57"/>
@@ -18397,10 +18491,10 @@
       <c r="A23" s="29" t="s">
         <v>1673</v>
       </c>
-      <c r="B23" s="823" t="s">
+      <c r="B23" s="838" t="s">
         <v>1674</v>
       </c>
-      <c r="C23" s="823"/>
+      <c r="C23" s="838"/>
       <c r="D23" s="58"/>
       <c r="E23" s="59"/>
       <c r="F23" s="59"/>
@@ -18433,10 +18527,10 @@
       <c r="A25" s="615" t="s">
         <v>1677</v>
       </c>
-      <c r="B25" s="823" t="s">
+      <c r="B25" s="838" t="s">
         <v>1678</v>
       </c>
-      <c r="C25" s="823"/>
+      <c r="C25" s="838"/>
       <c r="D25" s="58"/>
       <c r="E25" s="59"/>
       <c r="F25" s="59"/>
@@ -18449,10 +18543,10 @@
       <c r="A26" s="615" t="s">
         <v>1679</v>
       </c>
-      <c r="B26" s="823" t="s">
+      <c r="B26" s="838" t="s">
         <v>990</v>
       </c>
-      <c r="C26" s="823"/>
+      <c r="C26" s="838"/>
       <c r="D26" s="58"/>
       <c r="E26" s="59"/>
       <c r="F26" s="59"/>
@@ -18468,10 +18562,10 @@
       <c r="A27" s="62" t="s">
         <v>1680</v>
       </c>
-      <c r="B27" s="823" t="s">
+      <c r="B27" s="838" t="s">
         <v>1681</v>
       </c>
-      <c r="C27" s="823"/>
+      <c r="C27" s="838"/>
       <c r="D27" s="58"/>
       <c r="E27" s="59"/>
       <c r="F27" s="59"/>
@@ -18483,12 +18577,12 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="825" t="s">
+      <c r="A28" s="821" t="s">
         <v>1682</v>
       </c>
-      <c r="B28" s="826"/>
-      <c r="C28" s="826"/>
-      <c r="D28" s="827"/>
+      <c r="B28" s="822"/>
+      <c r="C28" s="822"/>
+      <c r="D28" s="823"/>
       <c r="E28" s="55">
         <f t="shared" ref="E28:F28" si="1">SUM(E8:E23)</f>
         <v>795</v>
@@ -18507,12 +18601,12 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="828" t="s">
+      <c r="A29" s="824" t="s">
         <v>1643</v>
       </c>
-      <c r="B29" s="829"/>
-      <c r="C29" s="829"/>
-      <c r="D29" s="830"/>
+      <c r="B29" s="825"/>
+      <c r="C29" s="825"/>
+      <c r="D29" s="826"/>
       <c r="E29" s="63"/>
       <c r="F29" s="64"/>
       <c r="G29" s="65"/>
@@ -18525,12 +18619,12 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="831" t="s">
+      <c r="A30" s="827" t="s">
         <v>1683</v>
       </c>
-      <c r="B30" s="832"/>
-      <c r="C30" s="832"/>
-      <c r="D30" s="833"/>
+      <c r="B30" s="828"/>
+      <c r="C30" s="828"/>
+      <c r="D30" s="829"/>
       <c r="E30" s="66"/>
       <c r="F30" s="67"/>
       <c r="G30" s="68"/>
@@ -18561,6 +18655,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A30:D30"/>
@@ -18571,11 +18670,6 @@
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B18:C18"/>
   </mergeCells>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>
@@ -18606,78 +18700,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="842" t="s">
+      <c r="A1" s="845" t="s">
         <v>1684</v>
       </c>
-      <c r="B1" s="842"/>
-      <c r="C1" s="842"/>
-      <c r="D1" s="842"/>
-      <c r="E1" s="842"/>
-      <c r="F1" s="842"/>
-      <c r="G1" s="842"/>
-      <c r="H1" s="842"/>
-      <c r="I1" s="842"/>
-      <c r="J1" s="842"/>
-      <c r="K1" s="842"/>
-      <c r="L1" s="842"/>
-      <c r="M1" s="842"/>
-      <c r="N1" s="842"/>
+      <c r="B1" s="845"/>
+      <c r="C1" s="845"/>
+      <c r="D1" s="845"/>
+      <c r="E1" s="845"/>
+      <c r="F1" s="845"/>
+      <c r="G1" s="845"/>
+      <c r="H1" s="845"/>
+      <c r="I1" s="845"/>
+      <c r="J1" s="845"/>
+      <c r="K1" s="845"/>
+      <c r="L1" s="845"/>
+      <c r="M1" s="845"/>
+      <c r="N1" s="845"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="842" t="s">
+      <c r="A2" s="845" t="s">
         <v>1685</v>
       </c>
-      <c r="B2" s="842"/>
-      <c r="C2" s="842"/>
-      <c r="D2" s="842"/>
-      <c r="E2" s="842"/>
-      <c r="F2" s="842"/>
-      <c r="G2" s="842"/>
-      <c r="H2" s="842"/>
-      <c r="I2" s="842"/>
-      <c r="J2" s="842"/>
-      <c r="K2" s="842"/>
-      <c r="L2" s="842"/>
-      <c r="M2" s="842"/>
-      <c r="N2" s="842"/>
+      <c r="B2" s="845"/>
+      <c r="C2" s="845"/>
+      <c r="D2" s="845"/>
+      <c r="E2" s="845"/>
+      <c r="F2" s="845"/>
+      <c r="G2" s="845"/>
+      <c r="H2" s="845"/>
+      <c r="I2" s="845"/>
+      <c r="J2" s="845"/>
+      <c r="K2" s="845"/>
+      <c r="L2" s="845"/>
+      <c r="M2" s="845"/>
+      <c r="N2" s="845"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="845" t="s">
+      <c r="A4" s="848" t="s">
         <v>1686</v>
       </c>
-      <c r="B4" s="847" t="s">
+      <c r="B4" s="850" t="s">
         <v>1648</v>
       </c>
-      <c r="C4" s="848"/>
-      <c r="D4" s="845" t="s">
+      <c r="C4" s="851"/>
+      <c r="D4" s="848" t="s">
         <v>1649</v>
       </c>
-      <c r="E4" s="843" t="s">
+      <c r="E4" s="846" t="s">
         <v>1687</v>
       </c>
-      <c r="F4" s="844"/>
-      <c r="G4" s="843" t="s">
+      <c r="F4" s="847"/>
+      <c r="G4" s="846" t="s">
         <v>1688</v>
       </c>
-      <c r="H4" s="844"/>
-      <c r="I4" s="843" t="s">
+      <c r="H4" s="847"/>
+      <c r="I4" s="846" t="s">
         <v>1689</v>
       </c>
-      <c r="J4" s="844"/>
-      <c r="K4" s="843" t="s">
+      <c r="J4" s="847"/>
+      <c r="K4" s="846" t="s">
         <v>1690</v>
       </c>
-      <c r="L4" s="844"/>
-      <c r="M4" s="843" t="s">
+      <c r="L4" s="847"/>
+      <c r="M4" s="846" t="s">
         <v>1691</v>
       </c>
-      <c r="N4" s="844"/>
+      <c r="N4" s="847"/>
     </row>
     <row r="5" spans="1:14" s="5" customFormat="1">
-      <c r="A5" s="846"/>
-      <c r="B5" s="849"/>
-      <c r="C5" s="850"/>
-      <c r="D5" s="846"/>
+      <c r="A5" s="849"/>
+      <c r="B5" s="852"/>
+      <c r="C5" s="853"/>
+      <c r="D5" s="849"/>
       <c r="E5" s="7" t="s">
         <v>1692</v>
       </c>
@@ -18713,10 +18807,10 @@
       <c r="A6" s="8" t="s">
         <v>1654</v>
       </c>
-      <c r="B6" s="851" t="s">
+      <c r="B6" s="842" t="s">
         <v>1694</v>
       </c>
-      <c r="C6" s="851"/>
+      <c r="C6" s="842"/>
       <c r="D6" s="9">
         <v>1000000</v>
       </c>
@@ -18755,10 +18849,10 @@
       <c r="A7" s="8" t="s">
         <v>1664</v>
       </c>
-      <c r="B7" s="851" t="s">
+      <c r="B7" s="842" t="s">
         <v>1695</v>
       </c>
-      <c r="C7" s="851"/>
+      <c r="C7" s="842"/>
       <c r="D7" s="9">
         <v>1000000</v>
       </c>
@@ -18797,10 +18891,10 @@
       <c r="A8" s="8" t="s">
         <v>1668</v>
       </c>
-      <c r="B8" s="851" t="s">
+      <c r="B8" s="842" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="851"/>
+      <c r="C8" s="842"/>
       <c r="D8" s="9"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9"/>
@@ -18947,10 +19041,10 @@
       <c r="A12" s="8" t="s">
         <v>1673</v>
       </c>
-      <c r="B12" s="851" t="s">
+      <c r="B12" s="842" t="s">
         <v>1702</v>
       </c>
-      <c r="C12" s="851"/>
+      <c r="C12" s="842"/>
       <c r="D12" s="9">
         <v>2000000</v>
       </c>
@@ -18989,10 +19083,10 @@
       <c r="A13" s="8" t="s">
         <v>1675</v>
       </c>
-      <c r="B13" s="851" t="s">
+      <c r="B13" s="842" t="s">
         <v>1703</v>
       </c>
-      <c r="C13" s="851"/>
+      <c r="C13" s="842"/>
       <c r="D13" s="9">
         <v>5000000</v>
       </c>
@@ -19031,10 +19125,10 @@
       <c r="A14" s="8" t="s">
         <v>1677</v>
       </c>
-      <c r="B14" s="851" t="s">
+      <c r="B14" s="842" t="s">
         <v>1704</v>
       </c>
-      <c r="C14" s="851"/>
+      <c r="C14" s="842"/>
       <c r="D14" s="9">
         <v>10000000</v>
       </c>
@@ -19073,10 +19167,10 @@
       <c r="A15" s="8" t="s">
         <v>1679</v>
       </c>
-      <c r="B15" s="851" t="s">
+      <c r="B15" s="842" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="851"/>
+      <c r="C15" s="842"/>
       <c r="D15" s="9">
         <v>1000000</v>
       </c>
@@ -19115,10 +19209,10 @@
       <c r="A16" s="8" t="s">
         <v>1680</v>
       </c>
-      <c r="B16" s="851" t="s">
+      <c r="B16" s="842" t="s">
         <v>1670</v>
       </c>
-      <c r="C16" s="851"/>
+      <c r="C16" s="842"/>
       <c r="D16" s="9">
         <v>2000000</v>
       </c>
@@ -19157,10 +19251,10 @@
       <c r="A17" s="8" t="s">
         <v>1705</v>
       </c>
-      <c r="B17" s="851" t="s">
+      <c r="B17" s="842" t="s">
         <v>1671</v>
       </c>
-      <c r="C17" s="851"/>
+      <c r="C17" s="842"/>
       <c r="D17" s="9">
         <v>1000000</v>
       </c>
@@ -19213,10 +19307,10 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="17"/>
-      <c r="B19" s="852" t="s">
+      <c r="B19" s="843" t="s">
         <v>1636</v>
       </c>
-      <c r="C19" s="853"/>
+      <c r="C19" s="844"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="18">
@@ -19369,16 +19463,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A2:N2"/>
     <mergeCell ref="E4:F4"/>
@@ -19389,6 +19473,16 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <pageMargins left="0.90551181102362199" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="73" orientation="landscape" r:id="rId1"/>
@@ -23186,64 +23280,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="14">
-      <c r="A1" s="631" t="s">
+      <c r="A1" s="671" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="631"/>
-      <c r="C1" s="631"/>
-      <c r="D1" s="631"/>
-      <c r="E1" s="631"/>
-      <c r="F1" s="631"/>
-      <c r="G1" s="631"/>
-      <c r="H1" s="631"/>
-      <c r="I1" s="632"/>
-      <c r="J1" s="631"/>
-      <c r="K1" s="631"/>
-      <c r="L1" s="631"/>
-      <c r="M1" s="631"/>
-      <c r="N1" s="631"/>
+      <c r="B1" s="671"/>
+      <c r="C1" s="671"/>
+      <c r="D1" s="671"/>
+      <c r="E1" s="671"/>
+      <c r="F1" s="671"/>
+      <c r="G1" s="671"/>
+      <c r="H1" s="671"/>
+      <c r="I1" s="672"/>
+      <c r="J1" s="671"/>
+      <c r="K1" s="671"/>
+      <c r="L1" s="671"/>
+      <c r="M1" s="671"/>
+      <c r="N1" s="671"/>
       <c r="O1" s="524"/>
       <c r="P1" s="524"/>
       <c r="Q1" s="524"/>
     </row>
     <row r="2" spans="1:18" ht="14">
-      <c r="A2" s="633" t="s">
+      <c r="A2" s="673" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="633"/>
-      <c r="C2" s="633"/>
-      <c r="D2" s="633"/>
-      <c r="E2" s="633"/>
-      <c r="F2" s="633"/>
-      <c r="G2" s="633"/>
-      <c r="H2" s="633"/>
-      <c r="I2" s="634"/>
-      <c r="J2" s="633"/>
-      <c r="K2" s="633"/>
-      <c r="L2" s="633"/>
-      <c r="M2" s="633"/>
-      <c r="N2" s="633"/>
+      <c r="B2" s="673"/>
+      <c r="C2" s="673"/>
+      <c r="D2" s="673"/>
+      <c r="E2" s="673"/>
+      <c r="F2" s="673"/>
+      <c r="G2" s="673"/>
+      <c r="H2" s="673"/>
+      <c r="I2" s="674"/>
+      <c r="J2" s="673"/>
+      <c r="K2" s="673"/>
+      <c r="L2" s="673"/>
+      <c r="M2" s="673"/>
+      <c r="N2" s="673"/>
       <c r="O2" s="557"/>
       <c r="P2" s="557"/>
       <c r="Q2" s="557"/>
     </row>
     <row r="3" spans="1:18" ht="14">
-      <c r="A3" s="635" t="s">
+      <c r="A3" s="675" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="635"/>
-      <c r="C3" s="635"/>
-      <c r="D3" s="635"/>
-      <c r="E3" s="635"/>
-      <c r="F3" s="635"/>
-      <c r="G3" s="635"/>
-      <c r="H3" s="635"/>
-      <c r="I3" s="634"/>
-      <c r="J3" s="635"/>
-      <c r="K3" s="635"/>
-      <c r="L3" s="635"/>
-      <c r="M3" s="635"/>
-      <c r="N3" s="635"/>
+      <c r="B3" s="675"/>
+      <c r="C3" s="675"/>
+      <c r="D3" s="675"/>
+      <c r="E3" s="675"/>
+      <c r="F3" s="675"/>
+      <c r="G3" s="675"/>
+      <c r="H3" s="675"/>
+      <c r="I3" s="674"/>
+      <c r="J3" s="675"/>
+      <c r="K3" s="675"/>
+      <c r="L3" s="675"/>
+      <c r="M3" s="675"/>
+      <c r="N3" s="675"/>
       <c r="O3" s="558"/>
       <c r="P3" s="558"/>
       <c r="Q3" s="558"/>
@@ -25290,19 +25384,19 @@
     </row>
     <row r="47" spans="1:16" s="175" customFormat="1" ht="27.75" customHeight="1">
       <c r="A47" s="529"/>
-      <c r="B47" s="636" t="s">
+      <c r="B47" s="676" t="s">
         <v>123</v>
       </c>
-      <c r="C47" s="636"/>
-      <c r="D47" s="636"/>
-      <c r="E47" s="636"/>
-      <c r="F47" s="636"/>
-      <c r="G47" s="636"/>
-      <c r="H47" s="636"/>
-      <c r="I47" s="636"/>
-      <c r="J47" s="636"/>
-      <c r="K47" s="636"/>
-      <c r="L47" s="636"/>
+      <c r="C47" s="676"/>
+      <c r="D47" s="676"/>
+      <c r="E47" s="676"/>
+      <c r="F47" s="676"/>
+      <c r="G47" s="676"/>
+      <c r="H47" s="676"/>
+      <c r="I47" s="676"/>
+      <c r="J47" s="676"/>
+      <c r="K47" s="676"/>
+      <c r="L47" s="676"/>
       <c r="M47" s="562">
         <f>SUM(M7:M46)</f>
         <v>94056205</v>
@@ -25352,11 +25446,11 @@
     </row>
     <row r="51" spans="1:13" ht="14.5">
       <c r="A51" s="537"/>
-      <c r="B51" s="637" t="s">
+      <c r="B51" s="677" t="s">
         <v>128</v>
       </c>
-      <c r="C51" s="638"/>
-      <c r="D51" s="639"/>
+      <c r="C51" s="678"/>
+      <c r="D51" s="679"/>
       <c r="E51" s="538"/>
       <c r="F51" s="539"/>
       <c r="G51" s="539"/>
@@ -25370,11 +25464,11 @@
       <c r="A52" s="540">
         <v>1</v>
       </c>
-      <c r="B52" s="640" t="s">
+      <c r="B52" s="668" t="s">
         <v>0</v>
       </c>
-      <c r="C52" s="641"/>
-      <c r="D52" s="642"/>
+      <c r="C52" s="669"/>
+      <c r="D52" s="670"/>
       <c r="E52" s="98">
         <f>COUNTIF($N$7:$N$84,"Izin Akuntan Publik")</f>
         <v>2</v>
@@ -25395,11 +25489,11 @@
       <c r="A53" s="540">
         <v>2</v>
       </c>
-      <c r="B53" s="643" t="s">
+      <c r="B53" s="662" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="644"/>
-      <c r="D53" s="645"/>
+      <c r="C53" s="663"/>
+      <c r="D53" s="664"/>
       <c r="E53" s="98">
         <f>COUNTIF($N$7:$N$84,"Perpanjangan Izin Akuntan Publik")</f>
         <v>6</v>
@@ -25419,11 +25513,11 @@
       <c r="A54" s="540">
         <v>3</v>
       </c>
-      <c r="B54" s="643" t="s">
+      <c r="B54" s="662" t="s">
         <v>129</v>
       </c>
-      <c r="C54" s="644"/>
-      <c r="D54" s="645"/>
+      <c r="C54" s="663"/>
+      <c r="D54" s="664"/>
       <c r="E54" s="98"/>
       <c r="F54" s="541"/>
       <c r="G54" s="156"/>
@@ -25433,11 +25527,11 @@
     </row>
     <row r="55" spans="1:13" ht="14.5">
       <c r="A55" s="540"/>
-      <c r="B55" s="643" t="s">
+      <c r="B55" s="662" t="s">
         <v>130</v>
       </c>
-      <c r="C55" s="644"/>
-      <c r="D55" s="645"/>
+      <c r="C55" s="663"/>
+      <c r="D55" s="664"/>
       <c r="E55" s="98">
         <f>COUNTIF($N$7:$N$84,"Izin Usaha KAP Perseorangan")</f>
         <v>5</v>
@@ -25455,11 +25549,11 @@
     </row>
     <row r="56" spans="1:13" ht="14.5">
       <c r="A56" s="540"/>
-      <c r="B56" s="643" t="s">
+      <c r="B56" s="662" t="s">
         <v>131</v>
       </c>
-      <c r="C56" s="644"/>
-      <c r="D56" s="645"/>
+      <c r="C56" s="663"/>
+      <c r="D56" s="664"/>
       <c r="E56" s="98">
         <f>COUNTIF($N$7:$N$84,"Izin Usaha KAP Jumlah Rekan 2-4 orang")</f>
         <v>3</v>
@@ -25477,11 +25571,11 @@
     </row>
     <row r="57" spans="1:13" ht="14.5">
       <c r="A57" s="540"/>
-      <c r="B57" s="643" t="s">
+      <c r="B57" s="662" t="s">
         <v>132</v>
       </c>
-      <c r="C57" s="644"/>
-      <c r="D57" s="645"/>
+      <c r="C57" s="663"/>
+      <c r="D57" s="664"/>
       <c r="E57" s="98">
         <f>COUNTIF($N$7:$N$84,"Izin Usaha KAP Jumlah Rekan 5 orang atau lebih")</f>
         <v>0</v>
@@ -25501,11 +25595,11 @@
       <c r="A58" s="542">
         <v>4</v>
       </c>
-      <c r="B58" s="646" t="s">
+      <c r="B58" s="665" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="647"/>
-      <c r="D58" s="648"/>
+      <c r="C58" s="666"/>
+      <c r="D58" s="667"/>
       <c r="E58" s="105">
         <f>COUNTIF($N$7:$N$84,"Izin Pendirian Cabang KAP")</f>
         <v>1</v>
@@ -25523,11 +25617,11 @@
     </row>
     <row r="59" spans="1:13" ht="14.5">
       <c r="A59" s="545"/>
-      <c r="B59" s="649" t="s">
+      <c r="B59" s="656" t="s">
         <v>133</v>
       </c>
-      <c r="C59" s="650"/>
-      <c r="D59" s="651"/>
+      <c r="C59" s="657"/>
+      <c r="D59" s="658"/>
       <c r="E59" s="546"/>
       <c r="F59" s="547"/>
       <c r="G59" s="548"/>
@@ -25540,11 +25634,11 @@
     </row>
     <row r="60" spans="1:13" ht="14.5">
       <c r="A60" s="113"/>
-      <c r="B60" s="652" t="s">
+      <c r="B60" s="659" t="s">
         <v>134</v>
       </c>
-      <c r="C60" s="653"/>
-      <c r="D60" s="654"/>
+      <c r="C60" s="660"/>
+      <c r="D60" s="661"/>
       <c r="E60" s="152"/>
       <c r="F60" s="550"/>
       <c r="G60" s="551"/>
@@ -25556,11 +25650,11 @@
       <c r="A61" s="540">
         <v>5</v>
       </c>
-      <c r="B61" s="655" t="s">
+      <c r="B61" s="636" t="s">
         <v>6</v>
       </c>
-      <c r="C61" s="656"/>
-      <c r="D61" s="657"/>
+      <c r="C61" s="637"/>
+      <c r="D61" s="638"/>
       <c r="E61" s="98">
         <f>COUNTIF($N$7:$N$84,"Persetujuan Pencantuman Nama KAPA atau OAA Bersama-Sama dengan nama KAP")</f>
         <v>1</v>
@@ -25580,11 +25674,11 @@
       <c r="A62" s="542">
         <v>6</v>
       </c>
-      <c r="B62" s="658" t="s">
+      <c r="B62" s="651" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="659"/>
-      <c r="D62" s="659"/>
+      <c r="C62" s="652"/>
+      <c r="D62" s="652"/>
       <c r="E62" s="153">
         <f>COUNTIF($N$7:$N$84,"Persetujuan Pendaftaran KAPA atau OAA")</f>
         <v>0</v>
@@ -25602,11 +25696,11 @@
     </row>
     <row r="63" spans="1:13" ht="14.5">
       <c r="A63" s="552"/>
-      <c r="B63" s="660" t="s">
+      <c r="B63" s="653" t="s">
         <v>135</v>
       </c>
-      <c r="C63" s="661"/>
-      <c r="D63" s="662"/>
+      <c r="C63" s="654"/>
+      <c r="D63" s="655"/>
       <c r="E63" s="553"/>
       <c r="F63" s="554"/>
       <c r="G63" s="555"/>
@@ -25619,11 +25713,11 @@
     </row>
     <row r="64" spans="1:13" ht="14.5">
       <c r="A64" s="545"/>
-      <c r="B64" s="649" t="s">
+      <c r="B64" s="656" t="s">
         <v>136</v>
       </c>
-      <c r="C64" s="650"/>
-      <c r="D64" s="651"/>
+      <c r="C64" s="657"/>
+      <c r="D64" s="658"/>
       <c r="E64" s="546"/>
       <c r="F64" s="547"/>
       <c r="G64" s="548"/>
@@ -25650,11 +25744,11 @@
     </row>
     <row r="66" spans="1:10" ht="14.5">
       <c r="A66" s="113"/>
-      <c r="B66" s="652" t="s">
+      <c r="B66" s="659" t="s">
         <v>137</v>
       </c>
-      <c r="C66" s="653"/>
-      <c r="D66" s="654"/>
+      <c r="C66" s="660"/>
+      <c r="D66" s="661"/>
       <c r="E66" s="152"/>
       <c r="F66" s="550"/>
       <c r="G66" s="551"/>
@@ -25666,11 +25760,11 @@
       <c r="A67" s="540">
         <v>7</v>
       </c>
-      <c r="B67" s="655" t="s">
+      <c r="B67" s="636" t="s">
         <v>8</v>
       </c>
-      <c r="C67" s="656"/>
-      <c r="D67" s="657"/>
+      <c r="C67" s="637"/>
+      <c r="D67" s="638"/>
       <c r="E67" s="98">
         <f>COUNTIF($N$7:$N$84,"Denda Administratif atas Keterlambatan Perpanjangan Izin AP")</f>
         <v>0</v>
@@ -25689,11 +25783,11 @@
       <c r="A68" s="540">
         <v>8</v>
       </c>
-      <c r="B68" s="655" t="s">
+      <c r="B68" s="636" t="s">
         <v>9</v>
       </c>
-      <c r="C68" s="656"/>
-      <c r="D68" s="657"/>
+      <c r="C68" s="637"/>
+      <c r="D68" s="638"/>
       <c r="E68" s="98">
         <f>COUNTIF($N$7:$N$84,"Denda Administratif atas Keterlambatan Penyampaian LKU dan LK")</f>
         <v>11</v>
@@ -25712,11 +25806,11 @@
       <c r="A69" s="542">
         <v>9</v>
       </c>
-      <c r="B69" s="668" t="s">
+      <c r="B69" s="639" t="s">
         <v>10</v>
       </c>
-      <c r="C69" s="669"/>
-      <c r="D69" s="670"/>
+      <c r="C69" s="640"/>
+      <c r="D69" s="641"/>
       <c r="E69" s="105">
         <f>COUNTIF($N$7:$N$84,"Denda Administratif atas Keterlambatan Penyampaian Laporan PPL")</f>
         <v>11</v>
@@ -25733,11 +25827,11 @@
     </row>
     <row r="70" spans="1:10" ht="30" customHeight="1">
       <c r="A70" s="545"/>
-      <c r="B70" s="671" t="s">
+      <c r="B70" s="642" t="s">
         <v>139</v>
       </c>
-      <c r="C70" s="672"/>
-      <c r="D70" s="673"/>
+      <c r="C70" s="643"/>
+      <c r="D70" s="644"/>
       <c r="E70" s="546"/>
       <c r="F70" s="588"/>
       <c r="G70" s="589"/>
@@ -25752,11 +25846,11 @@
       <c r="A71" s="590">
         <v>10</v>
       </c>
-      <c r="B71" s="674" t="s">
+      <c r="B71" s="645" t="s">
         <v>140</v>
       </c>
-      <c r="C71" s="675"/>
-      <c r="D71" s="676"/>
+      <c r="C71" s="646"/>
+      <c r="D71" s="647"/>
       <c r="E71" s="591">
         <v>0</v>
       </c>
@@ -25774,11 +25868,11 @@
       <c r="A72" s="595">
         <v>11</v>
       </c>
-      <c r="B72" s="677" t="s">
+      <c r="B72" s="648" t="s">
         <v>141</v>
       </c>
-      <c r="C72" s="678"/>
-      <c r="D72" s="679"/>
+      <c r="C72" s="649"/>
+      <c r="D72" s="650"/>
       <c r="E72" s="596">
         <v>0</v>
       </c>
@@ -25791,12 +25885,12 @@
       <c r="J72" s="572"/>
     </row>
     <row r="73" spans="1:10" ht="14.5">
-      <c r="A73" s="663" t="s">
+      <c r="A73" s="631" t="s">
         <v>142</v>
       </c>
-      <c r="B73" s="664"/>
-      <c r="C73" s="664"/>
-      <c r="D73" s="665"/>
+      <c r="B73" s="632"/>
+      <c r="C73" s="632"/>
+      <c r="D73" s="633"/>
       <c r="E73" s="600">
         <f>SUM(E52:E71)</f>
         <v>40</v>
@@ -25811,12 +25905,12 @@
       <c r="J73" s="605"/>
     </row>
     <row r="74" spans="1:10" ht="14.5">
-      <c r="A74" s="666" t="s">
+      <c r="A74" s="634" t="s">
         <v>143</v>
       </c>
-      <c r="B74" s="667"/>
-      <c r="C74" s="667"/>
-      <c r="D74" s="665"/>
+      <c r="B74" s="635"/>
+      <c r="C74" s="635"/>
+      <c r="D74" s="633"/>
       <c r="E74" s="151">
         <f>SUM(E52:E71)</f>
         <v>40</v>
@@ -25862,6 +25956,26 @@
   </sheetData>
   <autoFilter ref="A6:Q47" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="27">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="B47:L47"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
     <mergeCell ref="A73:D73"/>
     <mergeCell ref="A74:D74"/>
     <mergeCell ref="B68:D68"/>
@@ -25869,26 +25983,6 @@
     <mergeCell ref="B70:D70"/>
     <mergeCell ref="B71:D71"/>
     <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="B47:L47"/>
-    <mergeCell ref="B51:D51"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.196850393700787" footer="0.196850393700787"/>
   <pageSetup paperSize="9" scale="52" orientation="landscape" r:id="rId1"/>
@@ -25932,64 +26026,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="680" t="s">
+      <c r="A1" s="720" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="680"/>
-      <c r="C1" s="680"/>
-      <c r="D1" s="680"/>
-      <c r="E1" s="680"/>
-      <c r="F1" s="680"/>
-      <c r="G1" s="680"/>
-      <c r="H1" s="680"/>
-      <c r="I1" s="681"/>
-      <c r="J1" s="680"/>
-      <c r="K1" s="680"/>
-      <c r="L1" s="680"/>
-      <c r="M1" s="680"/>
-      <c r="N1" s="680"/>
+      <c r="B1" s="720"/>
+      <c r="C1" s="720"/>
+      <c r="D1" s="720"/>
+      <c r="E1" s="720"/>
+      <c r="F1" s="720"/>
+      <c r="G1" s="720"/>
+      <c r="H1" s="720"/>
+      <c r="I1" s="721"/>
+      <c r="J1" s="720"/>
+      <c r="K1" s="720"/>
+      <c r="L1" s="720"/>
+      <c r="M1" s="720"/>
+      <c r="N1" s="720"/>
       <c r="O1" s="338"/>
       <c r="P1" s="338"/>
       <c r="Q1" s="338"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="682" t="s">
+      <c r="A2" s="722" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="682"/>
-      <c r="C2" s="682"/>
-      <c r="D2" s="682"/>
-      <c r="E2" s="682"/>
-      <c r="F2" s="682"/>
-      <c r="G2" s="682"/>
-      <c r="H2" s="682"/>
-      <c r="I2" s="683"/>
-      <c r="J2" s="682"/>
-      <c r="K2" s="682"/>
-      <c r="L2" s="682"/>
-      <c r="M2" s="682"/>
-      <c r="N2" s="682"/>
+      <c r="B2" s="722"/>
+      <c r="C2" s="722"/>
+      <c r="D2" s="722"/>
+      <c r="E2" s="722"/>
+      <c r="F2" s="722"/>
+      <c r="G2" s="722"/>
+      <c r="H2" s="722"/>
+      <c r="I2" s="723"/>
+      <c r="J2" s="722"/>
+      <c r="K2" s="722"/>
+      <c r="L2" s="722"/>
+      <c r="M2" s="722"/>
+      <c r="N2" s="722"/>
       <c r="O2" s="355"/>
       <c r="P2" s="355"/>
       <c r="Q2" s="355"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="684" t="s">
+      <c r="A3" s="724" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="684"/>
-      <c r="C3" s="684"/>
-      <c r="D3" s="684"/>
-      <c r="E3" s="684"/>
-      <c r="F3" s="684"/>
-      <c r="G3" s="684"/>
-      <c r="H3" s="684"/>
-      <c r="I3" s="683"/>
-      <c r="J3" s="684"/>
-      <c r="K3" s="684"/>
-      <c r="L3" s="684"/>
-      <c r="M3" s="684"/>
-      <c r="N3" s="684"/>
+      <c r="B3" s="724"/>
+      <c r="C3" s="724"/>
+      <c r="D3" s="724"/>
+      <c r="E3" s="724"/>
+      <c r="F3" s="724"/>
+      <c r="G3" s="724"/>
+      <c r="H3" s="724"/>
+      <c r="I3" s="723"/>
+      <c r="J3" s="724"/>
+      <c r="K3" s="724"/>
+      <c r="L3" s="724"/>
+      <c r="M3" s="724"/>
+      <c r="N3" s="724"/>
       <c r="O3" s="356"/>
       <c r="P3" s="356"/>
       <c r="Q3" s="356"/>
@@ -28123,19 +28217,19 @@
     </row>
     <row r="52" spans="1:15" s="175" customFormat="1" ht="27.75" hidden="1" customHeight="1">
       <c r="A52" s="472"/>
-      <c r="B52" s="636" t="s">
+      <c r="B52" s="676" t="s">
         <v>123</v>
       </c>
-      <c r="C52" s="636"/>
-      <c r="D52" s="636"/>
-      <c r="E52" s="636"/>
-      <c r="F52" s="636"/>
-      <c r="G52" s="636"/>
-      <c r="H52" s="636"/>
-      <c r="I52" s="636"/>
-      <c r="J52" s="636"/>
-      <c r="K52" s="636"/>
-      <c r="L52" s="636"/>
+      <c r="C52" s="676"/>
+      <c r="D52" s="676"/>
+      <c r="E52" s="676"/>
+      <c r="F52" s="676"/>
+      <c r="G52" s="676"/>
+      <c r="H52" s="676"/>
+      <c r="I52" s="676"/>
+      <c r="J52" s="676"/>
+      <c r="K52" s="676"/>
+      <c r="L52" s="676"/>
       <c r="M52" s="475">
         <f>SUM(M7:M51)</f>
         <v>55929480</v>
@@ -28181,11 +28275,11 @@
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="380"/>
-      <c r="B56" s="685" t="s">
+      <c r="B56" s="725" t="s">
         <v>128</v>
       </c>
-      <c r="C56" s="686"/>
-      <c r="D56" s="687"/>
+      <c r="C56" s="726"/>
+      <c r="D56" s="727"/>
       <c r="E56" s="381"/>
       <c r="F56" s="382"/>
       <c r="G56" s="382"/>
@@ -28197,11 +28291,11 @@
       <c r="A57" s="384">
         <v>1</v>
       </c>
-      <c r="B57" s="688" t="s">
+      <c r="B57" s="717" t="s">
         <v>0</v>
       </c>
-      <c r="C57" s="689"/>
-      <c r="D57" s="690"/>
+      <c r="C57" s="718"/>
+      <c r="D57" s="719"/>
       <c r="E57" s="385">
         <f>COUNTIF($N$7:$N$86,"Izin Akuntan Publik")</f>
         <v>11</v>
@@ -28221,11 +28315,11 @@
       <c r="A58" s="384">
         <v>2</v>
       </c>
-      <c r="B58" s="691" t="s">
+      <c r="B58" s="711" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="692"/>
-      <c r="D58" s="693"/>
+      <c r="C58" s="712"/>
+      <c r="D58" s="713"/>
       <c r="E58" s="385">
         <f>COUNTIF($N$7:$N$86,"Perpanjangan Izin Akuntan Publik")</f>
         <v>27</v>
@@ -28245,11 +28339,11 @@
       <c r="A59" s="384">
         <v>3</v>
       </c>
-      <c r="B59" s="691" t="s">
+      <c r="B59" s="711" t="s">
         <v>129</v>
       </c>
-      <c r="C59" s="692"/>
-      <c r="D59" s="693"/>
+      <c r="C59" s="712"/>
+      <c r="D59" s="713"/>
       <c r="E59" s="385"/>
       <c r="F59" s="386"/>
       <c r="G59" s="386"/>
@@ -28259,11 +28353,11 @@
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="384"/>
-      <c r="B60" s="691" t="s">
+      <c r="B60" s="711" t="s">
         <v>130</v>
       </c>
-      <c r="C60" s="692"/>
-      <c r="D60" s="693"/>
+      <c r="C60" s="712"/>
+      <c r="D60" s="713"/>
       <c r="E60" s="385">
         <f>COUNTIF($N$7:$N$86,"Izin Usaha KAP Perseorangan")</f>
         <v>0</v>
@@ -28281,11 +28375,11 @@
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="384"/>
-      <c r="B61" s="691" t="s">
+      <c r="B61" s="711" t="s">
         <v>131</v>
       </c>
-      <c r="C61" s="692"/>
-      <c r="D61" s="693"/>
+      <c r="C61" s="712"/>
+      <c r="D61" s="713"/>
       <c r="E61" s="385">
         <f>COUNTIF($N$7:$N$86,"Izin Usaha KAP Jumlah Rekan 2-4 orang")</f>
         <v>1</v>
@@ -28303,11 +28397,11 @@
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="384"/>
-      <c r="B62" s="691" t="s">
+      <c r="B62" s="711" t="s">
         <v>132</v>
       </c>
-      <c r="C62" s="692"/>
-      <c r="D62" s="693"/>
+      <c r="C62" s="712"/>
+      <c r="D62" s="713"/>
       <c r="E62" s="385">
         <f>COUNTIF($N$7:$N$86,"Izin Usaha KAP Jumlah Rekan 5 orang atau lebih")</f>
         <v>0</v>
@@ -28327,11 +28421,11 @@
       <c r="A63" s="389">
         <v>4</v>
       </c>
-      <c r="B63" s="694" t="s">
+      <c r="B63" s="714" t="s">
         <v>5</v>
       </c>
-      <c r="C63" s="695"/>
-      <c r="D63" s="696"/>
+      <c r="C63" s="715"/>
+      <c r="D63" s="716"/>
       <c r="E63" s="390">
         <f>COUNTIF($N$7:$N$86,"Izin Pendirian Cabang KAP")</f>
         <v>1</v>
@@ -28349,11 +28443,11 @@
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="393"/>
-      <c r="B64" s="697" t="s">
+      <c r="B64" s="705" t="s">
         <v>133</v>
       </c>
-      <c r="C64" s="698"/>
-      <c r="D64" s="699"/>
+      <c r="C64" s="706"/>
+      <c r="D64" s="707"/>
       <c r="E64" s="394"/>
       <c r="F64" s="395"/>
       <c r="G64" s="395"/>
@@ -28366,11 +28460,11 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="397"/>
-      <c r="B65" s="700" t="s">
+      <c r="B65" s="708" t="s">
         <v>134</v>
       </c>
-      <c r="C65" s="701"/>
-      <c r="D65" s="702"/>
+      <c r="C65" s="709"/>
+      <c r="D65" s="710"/>
       <c r="E65" s="398"/>
       <c r="F65" s="399"/>
       <c r="G65" s="399"/>
@@ -28382,11 +28476,11 @@
       <c r="A66" s="384">
         <v>5</v>
       </c>
-      <c r="B66" s="703" t="s">
+      <c r="B66" s="685" t="s">
         <v>6</v>
       </c>
-      <c r="C66" s="704"/>
-      <c r="D66" s="705"/>
+      <c r="C66" s="686"/>
+      <c r="D66" s="687"/>
       <c r="E66" s="385">
         <f>COUNTIF($N$7:$N$86,"Persetujuan Pencantuman Nama KAPA atau OAA Bersama-Sama dengan nama KAP")</f>
         <v>1</v>
@@ -28406,11 +28500,11 @@
       <c r="A67" s="389">
         <v>6</v>
       </c>
-      <c r="B67" s="706" t="s">
+      <c r="B67" s="700" t="s">
         <v>7</v>
       </c>
-      <c r="C67" s="707"/>
-      <c r="D67" s="707"/>
+      <c r="C67" s="701"/>
+      <c r="D67" s="701"/>
       <c r="E67" s="401">
         <f>COUNTIF($N$7:$N$86,"Persetujuan Pendaftaran KAPA atau OAA")</f>
         <v>0</v>
@@ -28428,11 +28522,11 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="402"/>
-      <c r="B68" s="708" t="s">
+      <c r="B68" s="702" t="s">
         <v>135</v>
       </c>
-      <c r="C68" s="709"/>
-      <c r="D68" s="710"/>
+      <c r="C68" s="703"/>
+      <c r="D68" s="704"/>
       <c r="E68" s="403"/>
       <c r="F68" s="404"/>
       <c r="G68" s="404"/>
@@ -28445,11 +28539,11 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="393"/>
-      <c r="B69" s="697" t="s">
+      <c r="B69" s="705" t="s">
         <v>136</v>
       </c>
-      <c r="C69" s="698"/>
-      <c r="D69" s="699"/>
+      <c r="C69" s="706"/>
+      <c r="D69" s="707"/>
       <c r="E69" s="394"/>
       <c r="F69" s="395"/>
       <c r="G69" s="395"/>
@@ -28476,11 +28570,11 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="397"/>
-      <c r="B71" s="700" t="s">
+      <c r="B71" s="708" t="s">
         <v>137</v>
       </c>
-      <c r="C71" s="701"/>
-      <c r="D71" s="702"/>
+      <c r="C71" s="709"/>
+      <c r="D71" s="710"/>
       <c r="E71" s="398"/>
       <c r="F71" s="399"/>
       <c r="G71" s="399"/>
@@ -28492,11 +28586,11 @@
       <c r="A72" s="384">
         <v>7</v>
       </c>
-      <c r="B72" s="703" t="s">
+      <c r="B72" s="685" t="s">
         <v>8</v>
       </c>
-      <c r="C72" s="704"/>
-      <c r="D72" s="705"/>
+      <c r="C72" s="686"/>
+      <c r="D72" s="687"/>
       <c r="E72" s="385">
         <f>COUNTIF($N$7:$N$86,"Denda Administratif atas Keterlambatan Perpanjangan Izin AP")</f>
         <v>0</v>
@@ -28515,11 +28609,11 @@
       <c r="A73" s="384">
         <v>8</v>
       </c>
-      <c r="B73" s="703" t="s">
+      <c r="B73" s="685" t="s">
         <v>9</v>
       </c>
-      <c r="C73" s="704"/>
-      <c r="D73" s="705"/>
+      <c r="C73" s="686"/>
+      <c r="D73" s="687"/>
       <c r="E73" s="385">
         <f>COUNTIF($N$7:$N$86,"Denda Administratif atas Keterlambatan Penyampaian LKU dan LK")</f>
         <v>2</v>
@@ -28538,11 +28632,11 @@
       <c r="A74" s="389">
         <v>9</v>
       </c>
-      <c r="B74" s="716" t="s">
+      <c r="B74" s="688" t="s">
         <v>10</v>
       </c>
-      <c r="C74" s="717"/>
-      <c r="D74" s="718"/>
+      <c r="C74" s="689"/>
+      <c r="D74" s="690"/>
       <c r="E74" s="390">
         <f>COUNTIF($N$7:$N$86,"Denda Administratif atas Keterlambatan Penyampaian Laporan PPL")</f>
         <v>2</v>
@@ -28559,11 +28653,11 @@
     </row>
     <row r="75" spans="1:10" ht="30" customHeight="1">
       <c r="A75" s="393"/>
-      <c r="B75" s="719" t="s">
+      <c r="B75" s="691" t="s">
         <v>139</v>
       </c>
-      <c r="C75" s="720"/>
-      <c r="D75" s="721"/>
+      <c r="C75" s="692"/>
+      <c r="D75" s="693"/>
       <c r="E75" s="394"/>
       <c r="F75" s="418"/>
       <c r="G75" s="418"/>
@@ -28578,11 +28672,11 @@
       <c r="A76" s="433">
         <v>10</v>
       </c>
-      <c r="B76" s="722" t="s">
+      <c r="B76" s="694" t="s">
         <v>140</v>
       </c>
-      <c r="C76" s="723"/>
-      <c r="D76" s="724"/>
+      <c r="C76" s="695"/>
+      <c r="D76" s="696"/>
       <c r="E76" s="436">
         <v>0</v>
       </c>
@@ -28600,11 +28694,11 @@
       <c r="A77" s="447">
         <v>11</v>
       </c>
-      <c r="B77" s="725" t="s">
+      <c r="B77" s="697" t="s">
         <v>141</v>
       </c>
-      <c r="C77" s="726"/>
-      <c r="D77" s="727"/>
+      <c r="C77" s="698"/>
+      <c r="D77" s="699"/>
       <c r="E77" s="448">
         <v>0</v>
       </c>
@@ -28617,12 +28711,12 @@
       <c r="J77" s="431"/>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="711" t="s">
+      <c r="A78" s="680" t="s">
         <v>142</v>
       </c>
-      <c r="B78" s="712"/>
-      <c r="C78" s="712"/>
-      <c r="D78" s="713"/>
+      <c r="B78" s="681"/>
+      <c r="C78" s="681"/>
+      <c r="D78" s="682"/>
       <c r="E78" s="452">
         <f>SUM(E57:E76)</f>
         <v>45</v>
@@ -28637,12 +28731,12 @@
       <c r="J78" s="461"/>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="714" t="s">
+      <c r="A79" s="683" t="s">
         <v>143</v>
       </c>
-      <c r="B79" s="715"/>
-      <c r="C79" s="715"/>
-      <c r="D79" s="713"/>
+      <c r="B79" s="684"/>
+      <c r="C79" s="684"/>
+      <c r="D79" s="682"/>
       <c r="E79" s="372">
         <f>SUM(E57:E76)</f>
         <v>45</v>
@@ -28715,6 +28809,26 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="27">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="B52:L52"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
     <mergeCell ref="A78:D78"/>
     <mergeCell ref="A79:D79"/>
     <mergeCell ref="B73:D73"/>
@@ -28722,26 +28836,6 @@
     <mergeCell ref="B75:D75"/>
     <mergeCell ref="B76:D76"/>
     <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="B52:L52"/>
-    <mergeCell ref="B56:D56"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.196850393700787" footer="0.196850393700787"/>
   <pageSetup paperSize="9" scale="52" orientation="landscape" r:id="rId1"/>
@@ -28784,64 +28878,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="680" t="s">
+      <c r="A1" s="720" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="680"/>
-      <c r="C1" s="680"/>
-      <c r="D1" s="680"/>
-      <c r="E1" s="680"/>
-      <c r="F1" s="680"/>
-      <c r="G1" s="680"/>
-      <c r="H1" s="680"/>
-      <c r="I1" s="681"/>
-      <c r="J1" s="680"/>
-      <c r="K1" s="680"/>
-      <c r="L1" s="680"/>
-      <c r="M1" s="680"/>
-      <c r="N1" s="680"/>
+      <c r="B1" s="720"/>
+      <c r="C1" s="720"/>
+      <c r="D1" s="720"/>
+      <c r="E1" s="720"/>
+      <c r="F1" s="720"/>
+      <c r="G1" s="720"/>
+      <c r="H1" s="720"/>
+      <c r="I1" s="721"/>
+      <c r="J1" s="720"/>
+      <c r="K1" s="720"/>
+      <c r="L1" s="720"/>
+      <c r="M1" s="720"/>
+      <c r="N1" s="720"/>
       <c r="O1" s="338"/>
       <c r="P1" s="338"/>
       <c r="Q1" s="338"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="682" t="s">
+      <c r="A2" s="722" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="682"/>
-      <c r="C2" s="682"/>
-      <c r="D2" s="682"/>
-      <c r="E2" s="682"/>
-      <c r="F2" s="682"/>
-      <c r="G2" s="682"/>
-      <c r="H2" s="682"/>
-      <c r="I2" s="683"/>
-      <c r="J2" s="682"/>
-      <c r="K2" s="682"/>
-      <c r="L2" s="682"/>
-      <c r="M2" s="682"/>
-      <c r="N2" s="682"/>
+      <c r="B2" s="722"/>
+      <c r="C2" s="722"/>
+      <c r="D2" s="722"/>
+      <c r="E2" s="722"/>
+      <c r="F2" s="722"/>
+      <c r="G2" s="722"/>
+      <c r="H2" s="722"/>
+      <c r="I2" s="723"/>
+      <c r="J2" s="722"/>
+      <c r="K2" s="722"/>
+      <c r="L2" s="722"/>
+      <c r="M2" s="722"/>
+      <c r="N2" s="722"/>
       <c r="O2" s="355"/>
       <c r="P2" s="355"/>
       <c r="Q2" s="355"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="684" t="s">
+      <c r="A3" s="724" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="684"/>
-      <c r="C3" s="684"/>
-      <c r="D3" s="684"/>
-      <c r="E3" s="684"/>
-      <c r="F3" s="684"/>
-      <c r="G3" s="684"/>
-      <c r="H3" s="684"/>
-      <c r="I3" s="683"/>
-      <c r="J3" s="684"/>
-      <c r="K3" s="684"/>
-      <c r="L3" s="684"/>
-      <c r="M3" s="684"/>
-      <c r="N3" s="684"/>
+      <c r="B3" s="724"/>
+      <c r="C3" s="724"/>
+      <c r="D3" s="724"/>
+      <c r="E3" s="724"/>
+      <c r="F3" s="724"/>
+      <c r="G3" s="724"/>
+      <c r="H3" s="724"/>
+      <c r="I3" s="723"/>
+      <c r="J3" s="724"/>
+      <c r="K3" s="724"/>
+      <c r="L3" s="724"/>
+      <c r="M3" s="724"/>
+      <c r="N3" s="724"/>
       <c r="O3" s="356"/>
       <c r="P3" s="356"/>
       <c r="Q3" s="356"/>
@@ -31839,19 +31933,19 @@
     </row>
     <row r="73" spans="1:15" s="175" customFormat="1" ht="27.75" customHeight="1">
       <c r="A73" s="472"/>
-      <c r="B73" s="636" t="s">
+      <c r="B73" s="676" t="s">
         <v>123</v>
       </c>
-      <c r="C73" s="636"/>
-      <c r="D73" s="636"/>
-      <c r="E73" s="636"/>
-      <c r="F73" s="636"/>
-      <c r="G73" s="636"/>
-      <c r="H73" s="636"/>
-      <c r="I73" s="636"/>
-      <c r="J73" s="636"/>
-      <c r="K73" s="636"/>
-      <c r="L73" s="636"/>
+      <c r="C73" s="676"/>
+      <c r="D73" s="676"/>
+      <c r="E73" s="676"/>
+      <c r="F73" s="676"/>
+      <c r="G73" s="676"/>
+      <c r="H73" s="676"/>
+      <c r="I73" s="676"/>
+      <c r="J73" s="676"/>
+      <c r="K73" s="676"/>
+      <c r="L73" s="676"/>
       <c r="M73" s="475">
         <f>SUM(M7:M72)</f>
         <v>78433454</v>
@@ -31902,11 +31996,11 @@
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="380"/>
-      <c r="B77" s="685" t="s">
+      <c r="B77" s="725" t="s">
         <v>128</v>
       </c>
-      <c r="C77" s="686"/>
-      <c r="D77" s="687"/>
+      <c r="C77" s="726"/>
+      <c r="D77" s="727"/>
       <c r="E77" s="381"/>
       <c r="F77" s="382"/>
       <c r="G77" s="382"/>
@@ -31919,11 +32013,11 @@
       <c r="A78" s="384">
         <v>1</v>
       </c>
-      <c r="B78" s="688" t="s">
+      <c r="B78" s="717" t="s">
         <v>0</v>
       </c>
-      <c r="C78" s="689"/>
-      <c r="D78" s="690"/>
+      <c r="C78" s="718"/>
+      <c r="D78" s="719"/>
       <c r="E78" s="385">
         <f>COUNTIF($N$7:$N$107,"Izin Akuntan Publik")</f>
         <v>4</v>
@@ -31944,11 +32038,11 @@
       <c r="A79" s="384">
         <v>2</v>
       </c>
-      <c r="B79" s="691" t="s">
+      <c r="B79" s="711" t="s">
         <v>1</v>
       </c>
-      <c r="C79" s="692"/>
-      <c r="D79" s="693"/>
+      <c r="C79" s="712"/>
+      <c r="D79" s="713"/>
       <c r="E79" s="385">
         <f>COUNTIF($N$7:$N$72,"Perpanjangan Izin Akuntan Publik")</f>
         <v>56</v>
@@ -31969,11 +32063,11 @@
       <c r="A80" s="384">
         <v>3</v>
       </c>
-      <c r="B80" s="691" t="s">
+      <c r="B80" s="711" t="s">
         <v>129</v>
       </c>
-      <c r="C80" s="692"/>
-      <c r="D80" s="693"/>
+      <c r="C80" s="712"/>
+      <c r="D80" s="713"/>
       <c r="E80" s="385"/>
       <c r="F80" s="386"/>
       <c r="G80" s="386"/>
@@ -31985,11 +32079,11 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="384"/>
-      <c r="B81" s="691" t="s">
+      <c r="B81" s="711" t="s">
         <v>130</v>
       </c>
-      <c r="C81" s="692"/>
-      <c r="D81" s="693"/>
+      <c r="C81" s="712"/>
+      <c r="D81" s="713"/>
       <c r="E81" s="385">
         <f>COUNTIF($N$7:$N$107,"Izin Usaha KAP Perseorangan")</f>
         <v>0</v>
@@ -32008,11 +32102,11 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="384"/>
-      <c r="B82" s="691" t="s">
+      <c r="B82" s="711" t="s">
         <v>131</v>
       </c>
-      <c r="C82" s="692"/>
-      <c r="D82" s="693"/>
+      <c r="C82" s="712"/>
+      <c r="D82" s="713"/>
       <c r="E82" s="385">
         <f>COUNTIF($N$7:$N$107,"Izin Usaha KAP Jumlah Rekan 2-4 orang")</f>
         <v>0</v>
@@ -32031,11 +32125,11 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="384"/>
-      <c r="B83" s="691" t="s">
+      <c r="B83" s="711" t="s">
         <v>132</v>
       </c>
-      <c r="C83" s="692"/>
-      <c r="D83" s="693"/>
+      <c r="C83" s="712"/>
+      <c r="D83" s="713"/>
       <c r="E83" s="385">
         <f>COUNTIF($N$7:$N$107,"Izin Usaha KAP Jumlah Rekan 5 orang atau lebih")</f>
         <v>0</v>
@@ -32056,11 +32150,11 @@
       <c r="A84" s="389">
         <v>4</v>
       </c>
-      <c r="B84" s="694" t="s">
+      <c r="B84" s="714" t="s">
         <v>5</v>
       </c>
-      <c r="C84" s="695"/>
-      <c r="D84" s="696"/>
+      <c r="C84" s="715"/>
+      <c r="D84" s="716"/>
       <c r="E84" s="385">
         <f>COUNTIF($N$7:$N$107,"Izin Pendirian Cabang Kantor Akuntan Publik")</f>
         <v>1</v>
@@ -32079,11 +32173,11 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="393"/>
-      <c r="B85" s="697" t="s">
+      <c r="B85" s="705" t="s">
         <v>133</v>
       </c>
-      <c r="C85" s="698"/>
-      <c r="D85" s="699"/>
+      <c r="C85" s="706"/>
+      <c r="D85" s="707"/>
       <c r="E85" s="394"/>
       <c r="F85" s="395"/>
       <c r="G85" s="395"/>
@@ -32097,11 +32191,11 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="397"/>
-      <c r="B86" s="700" t="s">
+      <c r="B86" s="708" t="s">
         <v>134</v>
       </c>
-      <c r="C86" s="701"/>
-      <c r="D86" s="702"/>
+      <c r="C86" s="709"/>
+      <c r="D86" s="710"/>
       <c r="E86" s="398"/>
       <c r="F86" s="399"/>
       <c r="G86" s="399"/>
@@ -32114,11 +32208,11 @@
       <c r="A87" s="384">
         <v>5</v>
       </c>
-      <c r="B87" s="703" t="s">
+      <c r="B87" s="685" t="s">
         <v>6</v>
       </c>
-      <c r="C87" s="704"/>
-      <c r="D87" s="705"/>
+      <c r="C87" s="686"/>
+      <c r="D87" s="687"/>
       <c r="E87" s="385">
         <f>COUNTIF($N$7:$N$107,"Persetujuan Pencantuman Nama KAPA atau OAA Bersama-Sama dengan nama KAP")</f>
         <v>0</v>
@@ -32139,11 +32233,11 @@
       <c r="A88" s="389">
         <v>6</v>
       </c>
-      <c r="B88" s="706" t="s">
+      <c r="B88" s="700" t="s">
         <v>7</v>
       </c>
-      <c r="C88" s="707"/>
-      <c r="D88" s="707"/>
+      <c r="C88" s="701"/>
+      <c r="D88" s="701"/>
       <c r="E88" s="401">
         <f>COUNTIF($N$7:$N$107,"Persetujuan Pendaftaran KAPA atau OAA")</f>
         <v>0</v>
@@ -32162,11 +32256,11 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="402"/>
-      <c r="B89" s="708" t="s">
+      <c r="B89" s="702" t="s">
         <v>135</v>
       </c>
-      <c r="C89" s="709"/>
-      <c r="D89" s="710"/>
+      <c r="C89" s="703"/>
+      <c r="D89" s="704"/>
       <c r="E89" s="403"/>
       <c r="F89" s="404"/>
       <c r="G89" s="404"/>
@@ -32180,11 +32274,11 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="393"/>
-      <c r="B90" s="697" t="s">
+      <c r="B90" s="705" t="s">
         <v>136</v>
       </c>
-      <c r="C90" s="698"/>
-      <c r="D90" s="699"/>
+      <c r="C90" s="706"/>
+      <c r="D90" s="707"/>
       <c r="E90" s="394"/>
       <c r="F90" s="395"/>
       <c r="G90" s="395"/>
@@ -32213,11 +32307,11 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="397"/>
-      <c r="B92" s="700" t="s">
+      <c r="B92" s="708" t="s">
         <v>137</v>
       </c>
-      <c r="C92" s="701"/>
-      <c r="D92" s="702"/>
+      <c r="C92" s="709"/>
+      <c r="D92" s="710"/>
       <c r="E92" s="398"/>
       <c r="F92" s="399"/>
       <c r="G92" s="399"/>
@@ -32230,11 +32324,11 @@
       <c r="A93" s="384">
         <v>7</v>
       </c>
-      <c r="B93" s="703" t="s">
+      <c r="B93" s="685" t="s">
         <v>8</v>
       </c>
-      <c r="C93" s="704"/>
-      <c r="D93" s="705"/>
+      <c r="C93" s="686"/>
+      <c r="D93" s="687"/>
       <c r="E93" s="385">
         <f>COUNTIF($N$7:$N$107,"Denda Administratif atas Keterlambatan Perpanjangan Izin AP")</f>
         <v>2</v>
@@ -32255,11 +32349,11 @@
       <c r="A94" s="384">
         <v>8</v>
       </c>
-      <c r="B94" s="703" t="s">
+      <c r="B94" s="685" t="s">
         <v>9</v>
       </c>
-      <c r="C94" s="704"/>
-      <c r="D94" s="705"/>
+      <c r="C94" s="686"/>
+      <c r="D94" s="687"/>
       <c r="E94" s="385">
         <f>COUNTIF($N$7:$N$107,"Denda Administratif atas Keterlambatan Penyampaian LKU dan LK")</f>
         <v>3</v>
@@ -32279,11 +32373,11 @@
       <c r="A95" s="389">
         <v>9</v>
       </c>
-      <c r="B95" s="716" t="s">
+      <c r="B95" s="688" t="s">
         <v>10</v>
       </c>
-      <c r="C95" s="717"/>
-      <c r="D95" s="718"/>
+      <c r="C95" s="689"/>
+      <c r="D95" s="690"/>
       <c r="E95" s="390">
         <f>COUNTIF($N$7:$N$107,"Denda Administratif atas Keterlambatan Penyampaian Laporan PPL")</f>
         <v>0</v>
@@ -32299,11 +32393,11 @@
     </row>
     <row r="96" spans="1:14" ht="30" customHeight="1">
       <c r="A96" s="393"/>
-      <c r="B96" s="719" t="s">
+      <c r="B96" s="691" t="s">
         <v>139</v>
       </c>
-      <c r="C96" s="720"/>
-      <c r="D96" s="721"/>
+      <c r="C96" s="692"/>
+      <c r="D96" s="693"/>
       <c r="E96" s="394"/>
       <c r="F96" s="418"/>
       <c r="G96" s="418"/>
@@ -32319,11 +32413,11 @@
       <c r="A97" s="433">
         <v>10</v>
       </c>
-      <c r="B97" s="722" t="s">
+      <c r="B97" s="694" t="s">
         <v>140</v>
       </c>
-      <c r="C97" s="723"/>
-      <c r="D97" s="724"/>
+      <c r="C97" s="695"/>
+      <c r="D97" s="696"/>
       <c r="E97" s="436">
         <v>0</v>
       </c>
@@ -32342,11 +32436,11 @@
       <c r="A98" s="447">
         <v>11</v>
       </c>
-      <c r="B98" s="725" t="s">
+      <c r="B98" s="697" t="s">
         <v>141</v>
       </c>
-      <c r="C98" s="726"/>
-      <c r="D98" s="727"/>
+      <c r="C98" s="698"/>
+      <c r="D98" s="699"/>
       <c r="E98" s="448">
         <v>0</v>
       </c>
@@ -32360,12 +32454,12 @@
       <c r="N98" s="176"/>
     </row>
     <row r="99" spans="1:14">
-      <c r="A99" s="711" t="s">
+      <c r="A99" s="680" t="s">
         <v>142</v>
       </c>
-      <c r="B99" s="712"/>
-      <c r="C99" s="712"/>
-      <c r="D99" s="713"/>
+      <c r="B99" s="681"/>
+      <c r="C99" s="681"/>
+      <c r="D99" s="682"/>
       <c r="E99" s="452">
         <f>SUM(E78:E97)</f>
         <v>66</v>
@@ -32381,12 +32475,12 @@
       <c r="N99" s="176"/>
     </row>
     <row r="100" spans="1:14">
-      <c r="A100" s="714" t="s">
+      <c r="A100" s="683" t="s">
         <v>143</v>
       </c>
-      <c r="B100" s="715"/>
-      <c r="C100" s="715"/>
-      <c r="D100" s="713"/>
+      <c r="B100" s="684"/>
+      <c r="C100" s="684"/>
+      <c r="D100" s="682"/>
       <c r="E100" s="372">
         <f>SUM(E78:E97)</f>
         <v>66</v>
@@ -32458,6 +32552,26 @@
   </sheetData>
   <autoFilter ref="A6:Q73" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="27">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="B73:L73"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B93:D93"/>
     <mergeCell ref="A99:D99"/>
     <mergeCell ref="A100:D100"/>
     <mergeCell ref="B94:D94"/>
@@ -32465,26 +32579,6 @@
     <mergeCell ref="B96:D96"/>
     <mergeCell ref="B97:D97"/>
     <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="B73:L73"/>
-    <mergeCell ref="B77:D77"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.196850393700787" footer="0.196850393700787"/>
   <pageSetup paperSize="9" scale="52" orientation="landscape" r:id="rId1"/>
@@ -32527,64 +32621,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="680" t="s">
+      <c r="A1" s="720" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="680"/>
-      <c r="C1" s="680"/>
-      <c r="D1" s="680"/>
-      <c r="E1" s="680"/>
-      <c r="F1" s="680"/>
-      <c r="G1" s="680"/>
-      <c r="H1" s="680"/>
-      <c r="I1" s="681"/>
-      <c r="J1" s="680"/>
-      <c r="K1" s="680"/>
-      <c r="L1" s="680"/>
-      <c r="M1" s="680"/>
-      <c r="N1" s="680"/>
+      <c r="B1" s="720"/>
+      <c r="C1" s="720"/>
+      <c r="D1" s="720"/>
+      <c r="E1" s="720"/>
+      <c r="F1" s="720"/>
+      <c r="G1" s="720"/>
+      <c r="H1" s="720"/>
+      <c r="I1" s="721"/>
+      <c r="J1" s="720"/>
+      <c r="K1" s="720"/>
+      <c r="L1" s="720"/>
+      <c r="M1" s="720"/>
+      <c r="N1" s="720"/>
       <c r="O1" s="338"/>
       <c r="P1" s="338"/>
       <c r="Q1" s="338"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="682" t="s">
+      <c r="A2" s="722" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="682"/>
-      <c r="C2" s="682"/>
-      <c r="D2" s="682"/>
-      <c r="E2" s="682"/>
-      <c r="F2" s="682"/>
-      <c r="G2" s="682"/>
-      <c r="H2" s="682"/>
-      <c r="I2" s="683"/>
-      <c r="J2" s="682"/>
-      <c r="K2" s="682"/>
-      <c r="L2" s="682"/>
-      <c r="M2" s="682"/>
-      <c r="N2" s="682"/>
+      <c r="B2" s="722"/>
+      <c r="C2" s="722"/>
+      <c r="D2" s="722"/>
+      <c r="E2" s="722"/>
+      <c r="F2" s="722"/>
+      <c r="G2" s="722"/>
+      <c r="H2" s="722"/>
+      <c r="I2" s="723"/>
+      <c r="J2" s="722"/>
+      <c r="K2" s="722"/>
+      <c r="L2" s="722"/>
+      <c r="M2" s="722"/>
+      <c r="N2" s="722"/>
       <c r="O2" s="355"/>
       <c r="P2" s="355"/>
       <c r="Q2" s="355"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="684" t="s">
+      <c r="A3" s="724" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="684"/>
-      <c r="C3" s="684"/>
-      <c r="D3" s="684"/>
-      <c r="E3" s="684"/>
-      <c r="F3" s="684"/>
-      <c r="G3" s="684"/>
-      <c r="H3" s="684"/>
-      <c r="I3" s="683"/>
-      <c r="J3" s="684"/>
-      <c r="K3" s="684"/>
-      <c r="L3" s="684"/>
-      <c r="M3" s="684"/>
-      <c r="N3" s="684"/>
+      <c r="B3" s="724"/>
+      <c r="C3" s="724"/>
+      <c r="D3" s="724"/>
+      <c r="E3" s="724"/>
+      <c r="F3" s="724"/>
+      <c r="G3" s="724"/>
+      <c r="H3" s="724"/>
+      <c r="I3" s="723"/>
+      <c r="J3" s="724"/>
+      <c r="K3" s="724"/>
+      <c r="L3" s="724"/>
+      <c r="M3" s="724"/>
+      <c r="N3" s="724"/>
       <c r="O3" s="356"/>
       <c r="P3" s="356"/>
       <c r="Q3" s="356"/>
@@ -35503,11 +35597,11 @@
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="380"/>
-      <c r="B76" s="685" t="s">
+      <c r="B76" s="725" t="s">
         <v>128</v>
       </c>
-      <c r="C76" s="686"/>
-      <c r="D76" s="687"/>
+      <c r="C76" s="726"/>
+      <c r="D76" s="727"/>
       <c r="E76" s="381"/>
       <c r="F76" s="382"/>
       <c r="G76" s="382"/>
@@ -35519,11 +35613,11 @@
       <c r="A77" s="384">
         <v>1</v>
       </c>
-      <c r="B77" s="688" t="s">
+      <c r="B77" s="717" t="s">
         <v>0</v>
       </c>
-      <c r="C77" s="689"/>
-      <c r="D77" s="690"/>
+      <c r="C77" s="718"/>
+      <c r="D77" s="719"/>
       <c r="E77" s="385">
         <f>COUNTIF($N$7:$N$108,"Izin Akuntan Publik")</f>
         <v>2</v>
@@ -35543,11 +35637,11 @@
       <c r="A78" s="384">
         <v>2</v>
       </c>
-      <c r="B78" s="691" t="s">
+      <c r="B78" s="711" t="s">
         <v>1</v>
       </c>
-      <c r="C78" s="692"/>
-      <c r="D78" s="693"/>
+      <c r="C78" s="712"/>
+      <c r="D78" s="713"/>
       <c r="E78" s="385">
         <f>COUNTIF($N$7:$N$108,"Perpanjangan Izin Akuntan Publik")</f>
         <v>38</v>
@@ -35567,11 +35661,11 @@
       <c r="A79" s="384">
         <v>3</v>
       </c>
-      <c r="B79" s="691" t="s">
+      <c r="B79" s="711" t="s">
         <v>129</v>
       </c>
-      <c r="C79" s="692"/>
-      <c r="D79" s="693"/>
+      <c r="C79" s="712"/>
+      <c r="D79" s="713"/>
       <c r="E79" s="385"/>
       <c r="F79" s="386"/>
       <c r="G79" s="386"/>
@@ -35582,11 +35676,11 @@
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="384"/>
-      <c r="B80" s="691" t="s">
+      <c r="B80" s="711" t="s">
         <v>130</v>
       </c>
-      <c r="C80" s="692"/>
-      <c r="D80" s="693"/>
+      <c r="C80" s="712"/>
+      <c r="D80" s="713"/>
       <c r="E80" s="385">
         <f>COUNTIF($N$7:$N$108,"Izin Usaha KAP Perseorangan")</f>
         <v>3</v>
@@ -35604,11 +35698,11 @@
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="384"/>
-      <c r="B81" s="691" t="s">
+      <c r="B81" s="711" t="s">
         <v>131</v>
       </c>
-      <c r="C81" s="692"/>
-      <c r="D81" s="693"/>
+      <c r="C81" s="712"/>
+      <c r="D81" s="713"/>
       <c r="E81" s="385">
         <f>COUNTIF($N$7:$N$108,"Izin Usaha KAP Jumlah Rekan 2-4 orang")</f>
         <v>0</v>
@@ -35626,11 +35720,11 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="384"/>
-      <c r="B82" s="691" t="s">
+      <c r="B82" s="711" t="s">
         <v>132</v>
       </c>
-      <c r="C82" s="692"/>
-      <c r="D82" s="693"/>
+      <c r="C82" s="712"/>
+      <c r="D82" s="713"/>
       <c r="E82" s="385">
         <f>COUNTIF($N$7:$N$108,"Izin Usaha KAP Jumlah Rekan 5 orang atau lebih")</f>
         <v>0</v>
@@ -35650,11 +35744,11 @@
       <c r="A83" s="389">
         <v>4</v>
       </c>
-      <c r="B83" s="694" t="s">
+      <c r="B83" s="714" t="s">
         <v>5</v>
       </c>
-      <c r="C83" s="695"/>
-      <c r="D83" s="696"/>
+      <c r="C83" s="715"/>
+      <c r="D83" s="716"/>
       <c r="E83" s="385">
         <f>COUNTIF($N$7:$N$108,"Izin Pendirian Cabang Kantor Akuntan Publik")</f>
         <v>0</v>
@@ -35672,11 +35766,11 @@
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="393"/>
-      <c r="B84" s="697" t="s">
+      <c r="B84" s="705" t="s">
         <v>133</v>
       </c>
-      <c r="C84" s="698"/>
-      <c r="D84" s="699"/>
+      <c r="C84" s="706"/>
+      <c r="D84" s="707"/>
       <c r="E84" s="394"/>
       <c r="F84" s="395"/>
       <c r="G84" s="395"/>
@@ -35689,11 +35783,11 @@
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="397"/>
-      <c r="B85" s="700" t="s">
+      <c r="B85" s="708" t="s">
         <v>134</v>
       </c>
-      <c r="C85" s="701"/>
-      <c r="D85" s="702"/>
+      <c r="C85" s="709"/>
+      <c r="D85" s="710"/>
       <c r="E85" s="398"/>
       <c r="F85" s="399"/>
       <c r="G85" s="399"/>
@@ -35705,11 +35799,11 @@
       <c r="A86" s="384">
         <v>5</v>
       </c>
-      <c r="B86" s="703" t="s">
+      <c r="B86" s="685" t="s">
         <v>6</v>
       </c>
-      <c r="C86" s="704"/>
-      <c r="D86" s="705"/>
+      <c r="C86" s="686"/>
+      <c r="D86" s="687"/>
       <c r="E86" s="385">
         <f>COUNTIF($N$7:$N$108,"Persetujuan Pencantuman Nama KAPA atau OAA Bersama-Sama dengan nama KAP")</f>
         <v>0</v>
@@ -35729,11 +35823,11 @@
       <c r="A87" s="389">
         <v>6</v>
       </c>
-      <c r="B87" s="706" t="s">
+      <c r="B87" s="700" t="s">
         <v>7</v>
       </c>
-      <c r="C87" s="707"/>
-      <c r="D87" s="707"/>
+      <c r="C87" s="701"/>
+      <c r="D87" s="701"/>
       <c r="E87" s="401">
         <f>COUNTIF($N$7:$N$108,"Persetujuan Pendaftaran KAPA atau OAA")</f>
         <v>0</v>
@@ -35751,11 +35845,11 @@
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="402"/>
-      <c r="B88" s="708" t="s">
+      <c r="B88" s="702" t="s">
         <v>135</v>
       </c>
-      <c r="C88" s="709"/>
-      <c r="D88" s="710"/>
+      <c r="C88" s="703"/>
+      <c r="D88" s="704"/>
       <c r="E88" s="403"/>
       <c r="F88" s="404"/>
       <c r="G88" s="404"/>
@@ -35768,11 +35862,11 @@
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="393"/>
-      <c r="B89" s="697" t="s">
+      <c r="B89" s="705" t="s">
         <v>136</v>
       </c>
-      <c r="C89" s="698"/>
-      <c r="D89" s="699"/>
+      <c r="C89" s="706"/>
+      <c r="D89" s="707"/>
       <c r="E89" s="394"/>
       <c r="F89" s="395"/>
       <c r="G89" s="395"/>
@@ -35799,11 +35893,11 @@
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="397"/>
-      <c r="B91" s="700" t="s">
+      <c r="B91" s="708" t="s">
         <v>137</v>
       </c>
-      <c r="C91" s="701"/>
-      <c r="D91" s="702"/>
+      <c r="C91" s="709"/>
+      <c r="D91" s="710"/>
       <c r="E91" s="398"/>
       <c r="F91" s="399"/>
       <c r="G91" s="399"/>
@@ -35815,11 +35909,11 @@
       <c r="A92" s="384">
         <v>7</v>
       </c>
-      <c r="B92" s="703" t="s">
+      <c r="B92" s="685" t="s">
         <v>8</v>
       </c>
-      <c r="C92" s="704"/>
-      <c r="D92" s="705"/>
+      <c r="C92" s="686"/>
+      <c r="D92" s="687"/>
       <c r="E92" s="611" t="s">
         <v>576</v>
       </c>
@@ -35837,11 +35931,11 @@
       <c r="A93" s="384">
         <v>8</v>
       </c>
-      <c r="B93" s="703" t="s">
+      <c r="B93" s="685" t="s">
         <v>9</v>
       </c>
-      <c r="C93" s="704"/>
-      <c r="D93" s="705"/>
+      <c r="C93" s="686"/>
+      <c r="D93" s="687"/>
       <c r="E93" s="385">
         <f>COUNTIF($N$7:$N$108,"Denda Administratif atas Keterlambatan Penyampaian LKU dan LK")</f>
         <v>0</v>
@@ -35860,11 +35954,11 @@
       <c r="A94" s="389">
         <v>9</v>
       </c>
-      <c r="B94" s="716" t="s">
+      <c r="B94" s="688" t="s">
         <v>10</v>
       </c>
-      <c r="C94" s="717"/>
-      <c r="D94" s="718"/>
+      <c r="C94" s="689"/>
+      <c r="D94" s="690"/>
       <c r="E94" s="390">
         <f>COUNTIF($N$7:$N$108,"Denda Administratif atas Keterlambatan Penyampaian Laporan PPL")</f>
         <v>21</v>
@@ -35881,11 +35975,11 @@
     </row>
     <row r="95" spans="1:10" ht="30" customHeight="1">
       <c r="A95" s="393"/>
-      <c r="B95" s="719" t="s">
+      <c r="B95" s="691" t="s">
         <v>139</v>
       </c>
-      <c r="C95" s="720"/>
-      <c r="D95" s="721"/>
+      <c r="C95" s="692"/>
+      <c r="D95" s="693"/>
       <c r="E95" s="394"/>
       <c r="F95" s="418"/>
       <c r="G95" s="418"/>
@@ -35900,11 +35994,11 @@
       <c r="A96" s="433">
         <v>10</v>
       </c>
-      <c r="B96" s="722" t="s">
+      <c r="B96" s="694" t="s">
         <v>140</v>
       </c>
-      <c r="C96" s="723"/>
-      <c r="D96" s="724"/>
+      <c r="C96" s="695"/>
+      <c r="D96" s="696"/>
       <c r="E96" s="436">
         <v>0</v>
       </c>
@@ -35942,11 +36036,11 @@
       <c r="A98" s="447">
         <v>12</v>
       </c>
-      <c r="B98" s="725" t="s">
+      <c r="B98" s="697" t="s">
         <v>141</v>
       </c>
-      <c r="C98" s="726"/>
-      <c r="D98" s="727"/>
+      <c r="C98" s="698"/>
+      <c r="D98" s="699"/>
       <c r="E98" s="448">
         <v>0</v>
       </c>
@@ -35959,12 +36053,12 @@
       <c r="J98" s="431"/>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" s="711" t="s">
+      <c r="A99" s="680" t="s">
         <v>142</v>
       </c>
-      <c r="B99" s="712"/>
-      <c r="C99" s="712"/>
-      <c r="D99" s="713"/>
+      <c r="B99" s="681"/>
+      <c r="C99" s="681"/>
+      <c r="D99" s="682"/>
       <c r="E99" s="452">
         <f>SUM(E77:E96)</f>
         <v>64</v>
@@ -35979,12 +36073,12 @@
       <c r="J99" s="461"/>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="714" t="s">
+      <c r="A100" s="683" t="s">
         <v>143</v>
       </c>
-      <c r="B100" s="715"/>
-      <c r="C100" s="715"/>
-      <c r="D100" s="713"/>
+      <c r="B100" s="684"/>
+      <c r="C100" s="684"/>
+      <c r="D100" s="682"/>
       <c r="E100" s="372">
         <f>SUM(E77:E96)</f>
         <v>64</v>
@@ -36067,6 +36161,26 @@
   </sheetData>
   <autoFilter ref="A6:Q72" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <mergeCells count="27">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="B72:L72"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B92:D92"/>
     <mergeCell ref="A99:D99"/>
     <mergeCell ref="A100:D100"/>
     <mergeCell ref="B93:D93"/>
@@ -36074,26 +36188,6 @@
     <mergeCell ref="B95:D95"/>
     <mergeCell ref="B96:D96"/>
     <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="B72:L72"/>
-    <mergeCell ref="B76:D76"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.196850393700787" footer="0.196850393700787"/>
   <pageSetup paperSize="9" scale="52" orientation="landscape"/>
@@ -36135,64 +36229,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="680" t="s">
+      <c r="A1" s="720" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="680"/>
-      <c r="C1" s="680"/>
-      <c r="D1" s="680"/>
-      <c r="E1" s="680"/>
-      <c r="F1" s="680"/>
-      <c r="G1" s="680"/>
-      <c r="H1" s="680"/>
-      <c r="I1" s="681"/>
-      <c r="J1" s="680"/>
-      <c r="K1" s="680"/>
-      <c r="L1" s="680"/>
-      <c r="M1" s="680"/>
-      <c r="N1" s="680"/>
+      <c r="B1" s="720"/>
+      <c r="C1" s="720"/>
+      <c r="D1" s="720"/>
+      <c r="E1" s="720"/>
+      <c r="F1" s="720"/>
+      <c r="G1" s="720"/>
+      <c r="H1" s="720"/>
+      <c r="I1" s="721"/>
+      <c r="J1" s="720"/>
+      <c r="K1" s="720"/>
+      <c r="L1" s="720"/>
+      <c r="M1" s="720"/>
+      <c r="N1" s="720"/>
       <c r="O1" s="338"/>
       <c r="P1" s="338"/>
       <c r="Q1" s="338"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="682" t="s">
+      <c r="A2" s="722" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="682"/>
-      <c r="C2" s="682"/>
-      <c r="D2" s="682"/>
-      <c r="E2" s="682"/>
-      <c r="F2" s="682"/>
-      <c r="G2" s="682"/>
-      <c r="H2" s="682"/>
-      <c r="I2" s="683"/>
-      <c r="J2" s="682"/>
-      <c r="K2" s="682"/>
-      <c r="L2" s="682"/>
-      <c r="M2" s="682"/>
-      <c r="N2" s="682"/>
+      <c r="B2" s="722"/>
+      <c r="C2" s="722"/>
+      <c r="D2" s="722"/>
+      <c r="E2" s="722"/>
+      <c r="F2" s="722"/>
+      <c r="G2" s="722"/>
+      <c r="H2" s="722"/>
+      <c r="I2" s="723"/>
+      <c r="J2" s="722"/>
+      <c r="K2" s="722"/>
+      <c r="L2" s="722"/>
+      <c r="M2" s="722"/>
+      <c r="N2" s="722"/>
       <c r="O2" s="355"/>
       <c r="P2" s="355"/>
       <c r="Q2" s="355"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="684" t="s">
+      <c r="A3" s="724" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="684"/>
-      <c r="C3" s="684"/>
-      <c r="D3" s="684"/>
-      <c r="E3" s="684"/>
-      <c r="F3" s="684"/>
-      <c r="G3" s="684"/>
-      <c r="H3" s="684"/>
-      <c r="I3" s="683"/>
-      <c r="J3" s="684"/>
-      <c r="K3" s="684"/>
-      <c r="L3" s="684"/>
-      <c r="M3" s="684"/>
-      <c r="N3" s="684"/>
+      <c r="B3" s="724"/>
+      <c r="C3" s="724"/>
+      <c r="D3" s="724"/>
+      <c r="E3" s="724"/>
+      <c r="F3" s="724"/>
+      <c r="G3" s="724"/>
+      <c r="H3" s="724"/>
+      <c r="I3" s="723"/>
+      <c r="J3" s="724"/>
+      <c r="K3" s="724"/>
+      <c r="L3" s="724"/>
+      <c r="M3" s="724"/>
+      <c r="N3" s="724"/>
       <c r="O3" s="356"/>
       <c r="P3" s="356"/>
       <c r="Q3" s="356"/>
@@ -40734,11 +40828,11 @@
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="380"/>
-      <c r="B109" s="685" t="s">
+      <c r="B109" s="725" t="s">
         <v>128</v>
       </c>
-      <c r="C109" s="686"/>
-      <c r="D109" s="687"/>
+      <c r="C109" s="726"/>
+      <c r="D109" s="727"/>
       <c r="E109" s="381"/>
       <c r="F109" s="381"/>
       <c r="G109" s="382"/>
@@ -40750,11 +40844,11 @@
       <c r="A110" s="384">
         <v>1</v>
       </c>
-      <c r="B110" s="688" t="s">
+      <c r="B110" s="717" t="s">
         <v>0</v>
       </c>
-      <c r="C110" s="689"/>
-      <c r="D110" s="690"/>
+      <c r="C110" s="718"/>
+      <c r="D110" s="719"/>
       <c r="E110" s="385">
         <f>COUNTIF($N$7:$N$141,"Izin Akuntan Publik")</f>
         <v>7</v>
@@ -40774,11 +40868,11 @@
       <c r="A111" s="384">
         <v>2</v>
       </c>
-      <c r="B111" s="691" t="s">
+      <c r="B111" s="711" t="s">
         <v>1</v>
       </c>
-      <c r="C111" s="692"/>
-      <c r="D111" s="693"/>
+      <c r="C111" s="712"/>
+      <c r="D111" s="713"/>
       <c r="E111" s="385">
         <f>COUNTIF($N$7:$N$141,"Perpanjangan Izin Akuntan Publik")</f>
         <v>83</v>
@@ -40798,11 +40892,11 @@
       <c r="A112" s="384">
         <v>3</v>
       </c>
-      <c r="B112" s="691" t="s">
+      <c r="B112" s="711" t="s">
         <v>129</v>
       </c>
-      <c r="C112" s="692"/>
-      <c r="D112" s="693"/>
+      <c r="C112" s="712"/>
+      <c r="D112" s="713"/>
       <c r="E112" s="385"/>
       <c r="F112" s="385"/>
       <c r="G112" s="386"/>
@@ -40813,11 +40907,11 @@
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="384"/>
-      <c r="B113" s="691" t="s">
+      <c r="B113" s="711" t="s">
         <v>130</v>
       </c>
-      <c r="C113" s="692"/>
-      <c r="D113" s="693"/>
+      <c r="C113" s="712"/>
+      <c r="D113" s="713"/>
       <c r="E113" s="385">
         <f>COUNTIF($N$7:$N$141,"Izin Usaha KAP Perseorangan")</f>
         <v>2</v>
@@ -40835,11 +40929,11 @@
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="384"/>
-      <c r="B114" s="691" t="s">
+      <c r="B114" s="711" t="s">
         <v>131</v>
       </c>
-      <c r="C114" s="692"/>
-      <c r="D114" s="693"/>
+      <c r="C114" s="712"/>
+      <c r="D114" s="713"/>
       <c r="E114" s="385">
         <f>COUNTIF($N$7:$N$141,"Izin Usaha KAP Jumlah Rekan 2-4 orang")</f>
         <v>2</v>
@@ -40857,11 +40951,11 @@
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="384"/>
-      <c r="B115" s="691" t="s">
+      <c r="B115" s="711" t="s">
         <v>132</v>
       </c>
-      <c r="C115" s="692"/>
-      <c r="D115" s="693"/>
+      <c r="C115" s="712"/>
+      <c r="D115" s="713"/>
       <c r="E115" s="385">
         <f>COUNTIF($N$7:$N$141,"Izin Usaha KAP Jumlah Rekan 5 orang atau lebih")</f>
         <v>0</v>
@@ -40881,11 +40975,11 @@
       <c r="A116" s="389">
         <v>4</v>
       </c>
-      <c r="B116" s="694" t="s">
+      <c r="B116" s="714" t="s">
         <v>5</v>
       </c>
-      <c r="C116" s="695"/>
-      <c r="D116" s="696"/>
+      <c r="C116" s="715"/>
+      <c r="D116" s="716"/>
       <c r="E116" s="385">
         <f>COUNTIF($N$7:$N$141,"Izin Pendirian Cabang Kantor Akuntan Publik")</f>
         <v>0</v>
@@ -40903,11 +40997,11 @@
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="393"/>
-      <c r="B117" s="697" t="s">
+      <c r="B117" s="705" t="s">
         <v>133</v>
       </c>
-      <c r="C117" s="698"/>
-      <c r="D117" s="699"/>
+      <c r="C117" s="706"/>
+      <c r="D117" s="707"/>
       <c r="E117" s="394"/>
       <c r="F117" s="394"/>
       <c r="G117" s="395"/>
@@ -40920,11 +41014,11 @@
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="397"/>
-      <c r="B118" s="700" t="s">
+      <c r="B118" s="708" t="s">
         <v>134</v>
       </c>
-      <c r="C118" s="701"/>
-      <c r="D118" s="702"/>
+      <c r="C118" s="709"/>
+      <c r="D118" s="710"/>
       <c r="E118" s="398"/>
       <c r="F118" s="398"/>
       <c r="G118" s="399"/>
@@ -40936,11 +41030,11 @@
       <c r="A119" s="384">
         <v>5</v>
       </c>
-      <c r="B119" s="703" t="s">
+      <c r="B119" s="685" t="s">
         <v>6</v>
       </c>
-      <c r="C119" s="704"/>
-      <c r="D119" s="705"/>
+      <c r="C119" s="686"/>
+      <c r="D119" s="687"/>
       <c r="E119" s="385">
         <f>COUNTIF($N$7:$N$141,"Persetujuan Pencantuman Nama KAPA atau OAA Bersama-Sama dengan nama KAP")</f>
         <v>0</v>
@@ -40960,11 +41054,11 @@
       <c r="A120" s="389">
         <v>6</v>
       </c>
-      <c r="B120" s="706" t="s">
+      <c r="B120" s="700" t="s">
         <v>7</v>
       </c>
-      <c r="C120" s="707"/>
-      <c r="D120" s="707"/>
+      <c r="C120" s="701"/>
+      <c r="D120" s="701"/>
       <c r="E120" s="401">
         <f>COUNTIF($N$7:$N$141,"Persetujuan Pendaftaran KAPA atau OAA")</f>
         <v>0</v>
@@ -40982,11 +41076,11 @@
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="402"/>
-      <c r="B121" s="708" t="s">
+      <c r="B121" s="702" t="s">
         <v>135</v>
       </c>
-      <c r="C121" s="709"/>
-      <c r="D121" s="710"/>
+      <c r="C121" s="703"/>
+      <c r="D121" s="704"/>
       <c r="E121" s="403"/>
       <c r="F121" s="403"/>
       <c r="G121" s="404"/>
@@ -40999,11 +41093,11 @@
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="393"/>
-      <c r="B122" s="697" t="s">
+      <c r="B122" s="705" t="s">
         <v>136</v>
       </c>
-      <c r="C122" s="698"/>
-      <c r="D122" s="699"/>
+      <c r="C122" s="706"/>
+      <c r="D122" s="707"/>
       <c r="E122" s="394"/>
       <c r="F122" s="394"/>
       <c r="G122" s="395"/>
@@ -41034,11 +41128,11 @@
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="397"/>
-      <c r="B124" s="700" t="s">
+      <c r="B124" s="708" t="s">
         <v>137</v>
       </c>
-      <c r="C124" s="701"/>
-      <c r="D124" s="702"/>
+      <c r="C124" s="709"/>
+      <c r="D124" s="710"/>
       <c r="E124" s="398"/>
       <c r="F124" s="398"/>
       <c r="G124" s="399"/>
@@ -41050,11 +41144,11 @@
       <c r="A125" s="384">
         <v>7</v>
       </c>
-      <c r="B125" s="703" t="s">
+      <c r="B125" s="685" t="s">
         <v>8</v>
       </c>
-      <c r="C125" s="704"/>
-      <c r="D125" s="705"/>
+      <c r="C125" s="686"/>
+      <c r="D125" s="687"/>
       <c r="E125" s="385">
         <v>2</v>
       </c>
@@ -41072,11 +41166,11 @@
       <c r="A126" s="384">
         <v>8</v>
       </c>
-      <c r="B126" s="703" t="s">
+      <c r="B126" s="685" t="s">
         <v>9</v>
       </c>
-      <c r="C126" s="704"/>
-      <c r="D126" s="705"/>
+      <c r="C126" s="686"/>
+      <c r="D126" s="687"/>
       <c r="E126" s="385">
         <f>COUNTIF($N$7:$N$141,"Denda Administratif atas Keterlambatan Penyampaian LKU dan LK")</f>
         <v>0</v>
@@ -41095,11 +41189,11 @@
       <c r="A127" s="389">
         <v>9</v>
       </c>
-      <c r="B127" s="716" t="s">
+      <c r="B127" s="688" t="s">
         <v>10</v>
       </c>
-      <c r="C127" s="717"/>
-      <c r="D127" s="718"/>
+      <c r="C127" s="689"/>
+      <c r="D127" s="690"/>
       <c r="E127" s="390">
         <v>2</v>
       </c>
@@ -41115,11 +41209,11 @@
     </row>
     <row r="128" spans="1:14" ht="30" customHeight="1">
       <c r="A128" s="393"/>
-      <c r="B128" s="719" t="s">
+      <c r="B128" s="691" t="s">
         <v>139</v>
       </c>
-      <c r="C128" s="720"/>
-      <c r="D128" s="721"/>
+      <c r="C128" s="692"/>
+      <c r="D128" s="693"/>
       <c r="E128" s="394"/>
       <c r="F128" s="394"/>
       <c r="G128" s="418"/>
@@ -41137,11 +41231,11 @@
       <c r="A129" s="433">
         <v>10</v>
       </c>
-      <c r="B129" s="722" t="s">
+      <c r="B129" s="694" t="s">
         <v>140</v>
       </c>
-      <c r="C129" s="723"/>
-      <c r="D129" s="724"/>
+      <c r="C129" s="695"/>
+      <c r="D129" s="696"/>
       <c r="E129" s="436">
         <v>0</v>
       </c>
@@ -41179,11 +41273,11 @@
       <c r="A131" s="447">
         <v>12</v>
       </c>
-      <c r="B131" s="725" t="s">
+      <c r="B131" s="697" t="s">
         <v>141</v>
       </c>
-      <c r="C131" s="726"/>
-      <c r="D131" s="727"/>
+      <c r="C131" s="698"/>
+      <c r="D131" s="699"/>
       <c r="E131" s="448">
         <v>0</v>
       </c>
@@ -41196,12 +41290,12 @@
       <c r="J131" s="431"/>
     </row>
     <row r="132" spans="1:10">
-      <c r="A132" s="711" t="s">
+      <c r="A132" s="680" t="s">
         <v>142</v>
       </c>
-      <c r="B132" s="712"/>
-      <c r="C132" s="712"/>
-      <c r="D132" s="713"/>
+      <c r="B132" s="681"/>
+      <c r="C132" s="681"/>
+      <c r="D132" s="682"/>
       <c r="E132" s="452">
         <f>SUM(E110:E129)</f>
         <v>98</v>
@@ -41216,12 +41310,12 @@
       <c r="J132" s="461"/>
     </row>
     <row r="133" spans="1:10">
-      <c r="A133" s="714" t="s">
+      <c r="A133" s="683" t="s">
         <v>143</v>
       </c>
-      <c r="B133" s="715"/>
-      <c r="C133" s="715"/>
-      <c r="D133" s="713"/>
+      <c r="B133" s="684"/>
+      <c r="C133" s="684"/>
+      <c r="D133" s="682"/>
       <c r="E133" s="372">
         <f>SUM(E110:E129)</f>
         <v>98</v>
@@ -41304,6 +41398,26 @@
   </sheetData>
   <autoFilter ref="A6:Q105" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <mergeCells count="27">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="B105:L105"/>
+    <mergeCell ref="B109:D109"/>
+    <mergeCell ref="B110:D110"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B122:D122"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="B125:D125"/>
     <mergeCell ref="A132:D132"/>
     <mergeCell ref="A133:D133"/>
     <mergeCell ref="B126:D126"/>
@@ -41311,26 +41425,6 @@
     <mergeCell ref="B128:D128"/>
     <mergeCell ref="B129:D129"/>
     <mergeCell ref="B131:D131"/>
-    <mergeCell ref="B120:D120"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B122:D122"/>
-    <mergeCell ref="B124:D124"/>
-    <mergeCell ref="B125:D125"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="B118:D118"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B110:D110"/>
-    <mergeCell ref="B111:D111"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="B105:L105"/>
-    <mergeCell ref="B109:D109"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.196850393700787" footer="0.196850393700787"/>
   <pageSetup paperSize="9" scale="52" orientation="landscape"/>
@@ -41373,64 +41467,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="734" t="s">
+      <c r="A1" s="778" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="734"/>
-      <c r="C1" s="734"/>
-      <c r="D1" s="734"/>
-      <c r="E1" s="734"/>
-      <c r="F1" s="734"/>
-      <c r="G1" s="734"/>
-      <c r="H1" s="734"/>
-      <c r="I1" s="735"/>
-      <c r="J1" s="734"/>
-      <c r="K1" s="734"/>
-      <c r="L1" s="734"/>
-      <c r="M1" s="734"/>
-      <c r="N1" s="734"/>
+      <c r="B1" s="778"/>
+      <c r="C1" s="778"/>
+      <c r="D1" s="778"/>
+      <c r="E1" s="778"/>
+      <c r="F1" s="778"/>
+      <c r="G1" s="778"/>
+      <c r="H1" s="778"/>
+      <c r="I1" s="779"/>
+      <c r="J1" s="778"/>
+      <c r="K1" s="778"/>
+      <c r="L1" s="778"/>
+      <c r="M1" s="778"/>
+      <c r="N1" s="778"/>
       <c r="O1" s="181"/>
       <c r="P1" s="181"/>
       <c r="Q1" s="181"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="736" t="s">
+      <c r="A2" s="780" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="736"/>
-      <c r="C2" s="736"/>
-      <c r="D2" s="736"/>
-      <c r="E2" s="736"/>
-      <c r="F2" s="736"/>
-      <c r="G2" s="736"/>
-      <c r="H2" s="736"/>
-      <c r="I2" s="737"/>
-      <c r="J2" s="736"/>
-      <c r="K2" s="736"/>
-      <c r="L2" s="736"/>
-      <c r="M2" s="736"/>
-      <c r="N2" s="736"/>
+      <c r="B2" s="780"/>
+      <c r="C2" s="780"/>
+      <c r="D2" s="780"/>
+      <c r="E2" s="780"/>
+      <c r="F2" s="780"/>
+      <c r="G2" s="780"/>
+      <c r="H2" s="780"/>
+      <c r="I2" s="781"/>
+      <c r="J2" s="780"/>
+      <c r="K2" s="780"/>
+      <c r="L2" s="780"/>
+      <c r="M2" s="780"/>
+      <c r="N2" s="780"/>
       <c r="O2" s="194"/>
       <c r="P2" s="194"/>
       <c r="Q2" s="194"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="738" t="s">
+      <c r="A3" s="782" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="738"/>
-      <c r="C3" s="738"/>
-      <c r="D3" s="738"/>
-      <c r="E3" s="738"/>
-      <c r="F3" s="738"/>
-      <c r="G3" s="738"/>
-      <c r="H3" s="738"/>
-      <c r="I3" s="737"/>
-      <c r="J3" s="738"/>
-      <c r="K3" s="738"/>
-      <c r="L3" s="738"/>
-      <c r="M3" s="738"/>
-      <c r="N3" s="738"/>
+      <c r="B3" s="782"/>
+      <c r="C3" s="782"/>
+      <c r="D3" s="782"/>
+      <c r="E3" s="782"/>
+      <c r="F3" s="782"/>
+      <c r="G3" s="782"/>
+      <c r="H3" s="782"/>
+      <c r="I3" s="781"/>
+      <c r="J3" s="782"/>
+      <c r="K3" s="782"/>
+      <c r="L3" s="782"/>
+      <c r="M3" s="782"/>
+      <c r="N3" s="782"/>
       <c r="O3" s="195"/>
       <c r="P3" s="195"/>
       <c r="Q3" s="195"/>
@@ -46962,19 +47056,19 @@
     </row>
     <row r="134" spans="1:15" s="175" customFormat="1" ht="27.75" customHeight="1">
       <c r="A134" s="211"/>
-      <c r="B134" s="739" t="s">
+      <c r="B134" s="783" t="s">
         <v>123</v>
       </c>
-      <c r="C134" s="740"/>
-      <c r="D134" s="740"/>
-      <c r="E134" s="740"/>
-      <c r="F134" s="740"/>
-      <c r="G134" s="740"/>
-      <c r="H134" s="740"/>
-      <c r="I134" s="740"/>
-      <c r="J134" s="740"/>
-      <c r="K134" s="740"/>
-      <c r="L134" s="741"/>
+      <c r="C134" s="784"/>
+      <c r="D134" s="784"/>
+      <c r="E134" s="784"/>
+      <c r="F134" s="784"/>
+      <c r="G134" s="784"/>
+      <c r="H134" s="784"/>
+      <c r="I134" s="784"/>
+      <c r="J134" s="784"/>
+      <c r="K134" s="784"/>
+      <c r="L134" s="785"/>
       <c r="M134" s="280">
         <f>SUM(M7:M133)</f>
         <v>413400878</v>
@@ -47020,11 +47114,11 @@
     </row>
     <row r="138" spans="1:15">
       <c r="A138" s="224"/>
-      <c r="B138" s="742" t="s">
+      <c r="B138" s="766" t="s">
         <v>128</v>
       </c>
-      <c r="C138" s="743"/>
-      <c r="D138" s="744"/>
+      <c r="C138" s="767"/>
+      <c r="D138" s="768"/>
       <c r="E138" s="225"/>
       <c r="F138" s="225"/>
       <c r="G138" s="226"/>
@@ -47036,11 +47130,11 @@
       <c r="A139" s="228">
         <v>1</v>
       </c>
-      <c r="B139" s="745" t="s">
+      <c r="B139" s="775" t="s">
         <v>0</v>
       </c>
-      <c r="C139" s="746"/>
-      <c r="D139" s="747"/>
+      <c r="C139" s="776"/>
+      <c r="D139" s="777"/>
       <c r="E139" s="229">
         <f>COUNTIF($N$7:$N$171,"Izin Akuntan Publik")</f>
         <v>6</v>
@@ -47060,11 +47154,11 @@
       <c r="A140" s="228">
         <v>2</v>
       </c>
-      <c r="B140" s="748" t="s">
+      <c r="B140" s="769" t="s">
         <v>1</v>
       </c>
-      <c r="C140" s="749"/>
-      <c r="D140" s="750"/>
+      <c r="C140" s="770"/>
+      <c r="D140" s="771"/>
       <c r="E140" s="229">
         <f>COUNTIF($N$7:$N$171,"Perpanjangan Izin Akuntan Publik")</f>
         <v>109</v>
@@ -47084,11 +47178,11 @@
       <c r="A141" s="228">
         <v>3</v>
       </c>
-      <c r="B141" s="748" t="s">
+      <c r="B141" s="769" t="s">
         <v>129</v>
       </c>
-      <c r="C141" s="749"/>
-      <c r="D141" s="750"/>
+      <c r="C141" s="770"/>
+      <c r="D141" s="771"/>
       <c r="E141" s="229"/>
       <c r="F141" s="229"/>
       <c r="G141" s="230"/>
@@ -47099,11 +47193,11 @@
     </row>
     <row r="142" spans="1:15">
       <c r="A142" s="228"/>
-      <c r="B142" s="748" t="s">
+      <c r="B142" s="769" t="s">
         <v>130</v>
       </c>
-      <c r="C142" s="749"/>
-      <c r="D142" s="750"/>
+      <c r="C142" s="770"/>
+      <c r="D142" s="771"/>
       <c r="E142" s="229">
         <f>COUNTIF($N$7:$N$171,"Izin Usaha KAP Perseorangan")</f>
         <v>2</v>
@@ -47121,11 +47215,11 @@
     </row>
     <row r="143" spans="1:15">
       <c r="A143" s="228"/>
-      <c r="B143" s="748" t="s">
+      <c r="B143" s="769" t="s">
         <v>131</v>
       </c>
-      <c r="C143" s="749"/>
-      <c r="D143" s="750"/>
+      <c r="C143" s="770"/>
+      <c r="D143" s="771"/>
       <c r="E143" s="229">
         <f>COUNTIF($N$7:$N$171,"Izin Usaha KAP Jumlah Rekan 2-4 orang")</f>
         <v>2</v>
@@ -47143,11 +47237,11 @@
     </row>
     <row r="144" spans="1:15">
       <c r="A144" s="228"/>
-      <c r="B144" s="748" t="s">
+      <c r="B144" s="769" t="s">
         <v>132</v>
       </c>
-      <c r="C144" s="749"/>
-      <c r="D144" s="750"/>
+      <c r="C144" s="770"/>
+      <c r="D144" s="771"/>
       <c r="E144" s="229">
         <f>COUNTIF($N$7:$N$171,"Izin Usaha KAP Jumlah Rekan 5 orang atau lebih")</f>
         <v>0</v>
@@ -47167,11 +47261,11 @@
       <c r="A145" s="233">
         <v>4</v>
       </c>
-      <c r="B145" s="751" t="s">
+      <c r="B145" s="772" t="s">
         <v>5</v>
       </c>
-      <c r="C145" s="752"/>
-      <c r="D145" s="753"/>
+      <c r="C145" s="773"/>
+      <c r="D145" s="774"/>
       <c r="E145" s="229">
         <f>COUNTIF($N$7:$N$171,"Izin Pendirian Cabang Kantor Akuntan Publik")</f>
         <v>2</v>
@@ -47189,11 +47283,11 @@
     </row>
     <row r="146" spans="1:14">
       <c r="A146" s="236"/>
-      <c r="B146" s="754" t="s">
+      <c r="B146" s="763" t="s">
         <v>133</v>
       </c>
-      <c r="C146" s="755"/>
-      <c r="D146" s="756"/>
+      <c r="C146" s="764"/>
+      <c r="D146" s="765"/>
       <c r="E146" s="237"/>
       <c r="F146" s="237"/>
       <c r="G146" s="238"/>
@@ -47206,11 +47300,11 @@
     </row>
     <row r="147" spans="1:14">
       <c r="A147" s="240"/>
-      <c r="B147" s="742" t="s">
+      <c r="B147" s="766" t="s">
         <v>134</v>
       </c>
-      <c r="C147" s="743"/>
-      <c r="D147" s="744"/>
+      <c r="C147" s="767"/>
+      <c r="D147" s="768"/>
       <c r="E147" s="241"/>
       <c r="F147" s="241"/>
       <c r="G147" s="242"/>
@@ -47222,11 +47316,11 @@
       <c r="A148" s="228">
         <v>5</v>
       </c>
-      <c r="B148" s="757" t="s">
+      <c r="B148" s="745" t="s">
         <v>6</v>
       </c>
-      <c r="C148" s="758"/>
-      <c r="D148" s="759"/>
+      <c r="C148" s="746"/>
+      <c r="D148" s="747"/>
       <c r="E148" s="229">
         <f>COUNTIF($N$7:$N$171,"Persetujuan Pencantuman Nama KAPA atau OAA Bersama-Sama dengan nama KAP")</f>
         <v>0</v>
@@ -47268,11 +47362,11 @@
     </row>
     <row r="150" spans="1:14">
       <c r="A150" s="246"/>
-      <c r="B150" s="754" t="s">
+      <c r="B150" s="763" t="s">
         <v>135</v>
       </c>
-      <c r="C150" s="755"/>
-      <c r="D150" s="756"/>
+      <c r="C150" s="764"/>
+      <c r="D150" s="765"/>
       <c r="E150" s="247"/>
       <c r="F150" s="247"/>
       <c r="G150" s="248"/>
@@ -47285,11 +47379,11 @@
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="236"/>
-      <c r="B151" s="754" t="s">
+      <c r="B151" s="763" t="s">
         <v>136</v>
       </c>
-      <c r="C151" s="755"/>
-      <c r="D151" s="756"/>
+      <c r="C151" s="764"/>
+      <c r="D151" s="765"/>
       <c r="E151" s="237"/>
       <c r="F151" s="237"/>
       <c r="G151" s="238"/>
@@ -47320,11 +47414,11 @@
     </row>
     <row r="153" spans="1:14">
       <c r="A153" s="240"/>
-      <c r="B153" s="742" t="s">
+      <c r="B153" s="766" t="s">
         <v>137</v>
       </c>
-      <c r="C153" s="743"/>
-      <c r="D153" s="744"/>
+      <c r="C153" s="767"/>
+      <c r="D153" s="768"/>
       <c r="E153" s="241"/>
       <c r="F153" s="241"/>
       <c r="G153" s="242"/>
@@ -47336,11 +47430,11 @@
       <c r="A154" s="228">
         <v>7</v>
       </c>
-      <c r="B154" s="757" t="s">
+      <c r="B154" s="745" t="s">
         <v>8</v>
       </c>
-      <c r="C154" s="758"/>
-      <c r="D154" s="759"/>
+      <c r="C154" s="746"/>
+      <c r="D154" s="747"/>
       <c r="E154" s="229">
         <v>1</v>
       </c>
@@ -47358,11 +47452,11 @@
       <c r="A155" s="228">
         <v>8</v>
       </c>
-      <c r="B155" s="757" t="s">
+      <c r="B155" s="745" t="s">
         <v>9</v>
       </c>
-      <c r="C155" s="758"/>
-      <c r="D155" s="759"/>
+      <c r="C155" s="746"/>
+      <c r="D155" s="747"/>
       <c r="E155" s="229">
         <f>COUNTIF($N$7:$N$171,"Denda Administratif atas Keterlambatan Penyampaian LKU dan LK")</f>
         <v>0</v>
@@ -47381,11 +47475,11 @@
       <c r="A156" s="233">
         <v>9</v>
       </c>
-      <c r="B156" s="774" t="s">
+      <c r="B156" s="748" t="s">
         <v>10</v>
       </c>
-      <c r="C156" s="775"/>
-      <c r="D156" s="776"/>
+      <c r="C156" s="749"/>
+      <c r="D156" s="750"/>
       <c r="E156" s="234">
         <v>3</v>
       </c>
@@ -47402,11 +47496,11 @@
     </row>
     <row r="157" spans="1:14" ht="30" customHeight="1">
       <c r="A157" s="236"/>
-      <c r="B157" s="777" t="s">
+      <c r="B157" s="751" t="s">
         <v>139</v>
       </c>
-      <c r="C157" s="778"/>
-      <c r="D157" s="779"/>
+      <c r="C157" s="752"/>
+      <c r="D157" s="753"/>
       <c r="E157" s="237"/>
       <c r="F157" s="237"/>
       <c r="G157" s="259"/>
@@ -47421,11 +47515,11 @@
       <c r="A158" s="261">
         <v>10</v>
       </c>
-      <c r="B158" s="780" t="s">
+      <c r="B158" s="754" t="s">
         <v>140</v>
       </c>
-      <c r="C158" s="781"/>
-      <c r="D158" s="782"/>
+      <c r="C158" s="755"/>
+      <c r="D158" s="756"/>
       <c r="E158" s="262">
         <v>0</v>
       </c>
@@ -47443,11 +47537,11 @@
       <c r="A159" s="265">
         <v>11</v>
       </c>
-      <c r="B159" s="783" t="s">
+      <c r="B159" s="757" t="s">
         <v>577</v>
       </c>
-      <c r="C159" s="784"/>
-      <c r="D159" s="785"/>
+      <c r="C159" s="758"/>
+      <c r="D159" s="759"/>
       <c r="E159" s="263">
         <v>0</v>
       </c>
@@ -47463,11 +47557,11 @@
       <c r="A160" s="265">
         <v>12</v>
       </c>
-      <c r="B160" s="763" t="s">
+      <c r="B160" s="734" t="s">
         <v>1039</v>
       </c>
-      <c r="C160" s="764"/>
-      <c r="D160" s="765"/>
+      <c r="C160" s="735"/>
+      <c r="D160" s="736"/>
       <c r="E160" s="263">
         <v>1</v>
       </c>
@@ -47483,11 +47577,11 @@
       <c r="A161" s="268">
         <v>13</v>
       </c>
-      <c r="B161" s="766" t="s">
+      <c r="B161" s="737" t="s">
         <v>141</v>
       </c>
-      <c r="C161" s="767"/>
-      <c r="D161" s="768"/>
+      <c r="C161" s="738"/>
+      <c r="D161" s="739"/>
       <c r="E161" s="269">
         <v>0</v>
       </c>
@@ -47500,12 +47594,12 @@
       <c r="J161" s="291"/>
     </row>
     <row r="162" spans="1:10">
-      <c r="A162" s="769" t="s">
+      <c r="A162" s="740" t="s">
         <v>142</v>
       </c>
-      <c r="B162" s="770"/>
-      <c r="C162" s="770"/>
-      <c r="D162" s="771"/>
+      <c r="B162" s="741"/>
+      <c r="C162" s="741"/>
+      <c r="D162" s="742"/>
       <c r="E162" s="272">
         <f>SUM(E139:E158)</f>
         <v>126</v>
@@ -47520,12 +47614,12 @@
       <c r="J162" s="294"/>
     </row>
     <row r="163" spans="1:10">
-      <c r="A163" s="772" t="s">
+      <c r="A163" s="743" t="s">
         <v>143</v>
       </c>
-      <c r="B163" s="773"/>
-      <c r="C163" s="773"/>
-      <c r="D163" s="771"/>
+      <c r="B163" s="744"/>
+      <c r="C163" s="744"/>
+      <c r="D163" s="742"/>
       <c r="E163" s="216">
         <f>SUM(E139:E158)</f>
         <v>126</v>
@@ -47608,6 +47702,26 @@
   </sheetData>
   <autoFilter ref="A6:Q134" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <mergeCells count="29">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="B134:L134"/>
+    <mergeCell ref="B138:D138"/>
+    <mergeCell ref="B139:D139"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="B141:D141"/>
+    <mergeCell ref="B142:D142"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="B144:D144"/>
+    <mergeCell ref="B145:D145"/>
+    <mergeCell ref="B146:D146"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="B148:D148"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="B150:D150"/>
+    <mergeCell ref="B151:D151"/>
+    <mergeCell ref="B153:D153"/>
+    <mergeCell ref="B154:D154"/>
     <mergeCell ref="B160:D160"/>
     <mergeCell ref="B161:D161"/>
     <mergeCell ref="A162:D162"/>
@@ -47617,26 +47731,6 @@
     <mergeCell ref="B157:D157"/>
     <mergeCell ref="B158:D158"/>
     <mergeCell ref="B159:D159"/>
-    <mergeCell ref="B149:D149"/>
-    <mergeCell ref="B150:D150"/>
-    <mergeCell ref="B151:D151"/>
-    <mergeCell ref="B153:D153"/>
-    <mergeCell ref="B154:D154"/>
-    <mergeCell ref="B144:D144"/>
-    <mergeCell ref="B145:D145"/>
-    <mergeCell ref="B146:D146"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="B148:D148"/>
-    <mergeCell ref="B139:D139"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="B141:D141"/>
-    <mergeCell ref="B142:D142"/>
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="B134:L134"/>
-    <mergeCell ref="B138:D138"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.196850393700787" footer="0.196850393700787"/>
   <pageSetup paperSize="9" scale="52" orientation="landscape" r:id="rId1"/>
@@ -47679,64 +47773,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="734" t="s">
+      <c r="A1" s="778" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="734"/>
-      <c r="C1" s="734"/>
-      <c r="D1" s="734"/>
-      <c r="E1" s="734"/>
-      <c r="F1" s="734"/>
-      <c r="G1" s="734"/>
-      <c r="H1" s="734"/>
-      <c r="I1" s="735"/>
-      <c r="J1" s="734"/>
-      <c r="K1" s="734"/>
-      <c r="L1" s="734"/>
-      <c r="M1" s="734"/>
-      <c r="N1" s="734"/>
+      <c r="B1" s="778"/>
+      <c r="C1" s="778"/>
+      <c r="D1" s="778"/>
+      <c r="E1" s="778"/>
+      <c r="F1" s="778"/>
+      <c r="G1" s="778"/>
+      <c r="H1" s="778"/>
+      <c r="I1" s="779"/>
+      <c r="J1" s="778"/>
+      <c r="K1" s="778"/>
+      <c r="L1" s="778"/>
+      <c r="M1" s="778"/>
+      <c r="N1" s="778"/>
       <c r="O1" s="181"/>
       <c r="P1" s="181"/>
       <c r="Q1" s="181"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="736" t="s">
+      <c r="A2" s="780" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="736"/>
-      <c r="C2" s="736"/>
-      <c r="D2" s="736"/>
-      <c r="E2" s="736"/>
-      <c r="F2" s="736"/>
-      <c r="G2" s="736"/>
-      <c r="H2" s="736"/>
-      <c r="I2" s="737"/>
-      <c r="J2" s="736"/>
-      <c r="K2" s="736"/>
-      <c r="L2" s="736"/>
-      <c r="M2" s="736"/>
-      <c r="N2" s="736"/>
+      <c r="B2" s="780"/>
+      <c r="C2" s="780"/>
+      <c r="D2" s="780"/>
+      <c r="E2" s="780"/>
+      <c r="F2" s="780"/>
+      <c r="G2" s="780"/>
+      <c r="H2" s="780"/>
+      <c r="I2" s="781"/>
+      <c r="J2" s="780"/>
+      <c r="K2" s="780"/>
+      <c r="L2" s="780"/>
+      <c r="M2" s="780"/>
+      <c r="N2" s="780"/>
       <c r="O2" s="194"/>
       <c r="P2" s="194"/>
       <c r="Q2" s="194"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="738" t="s">
+      <c r="A3" s="782" t="s">
         <v>1041</v>
       </c>
-      <c r="B3" s="738"/>
-      <c r="C3" s="738"/>
-      <c r="D3" s="738"/>
-      <c r="E3" s="738"/>
-      <c r="F3" s="738"/>
-      <c r="G3" s="738"/>
-      <c r="H3" s="738"/>
-      <c r="I3" s="737"/>
-      <c r="J3" s="738"/>
-      <c r="K3" s="738"/>
-      <c r="L3" s="738"/>
-      <c r="M3" s="738"/>
-      <c r="N3" s="738"/>
+      <c r="B3" s="782"/>
+      <c r="C3" s="782"/>
+      <c r="D3" s="782"/>
+      <c r="E3" s="782"/>
+      <c r="F3" s="782"/>
+      <c r="G3" s="782"/>
+      <c r="H3" s="782"/>
+      <c r="I3" s="781"/>
+      <c r="J3" s="782"/>
+      <c r="K3" s="782"/>
+      <c r="L3" s="782"/>
+      <c r="M3" s="782"/>
+      <c r="N3" s="782"/>
       <c r="O3" s="195"/>
       <c r="P3" s="195"/>
       <c r="Q3" s="195"/>
@@ -52286,19 +52380,19 @@
     </row>
     <row r="111" spans="1:19" s="175" customFormat="1" ht="27.75" customHeight="1">
       <c r="A111" s="211"/>
-      <c r="B111" s="739" t="s">
+      <c r="B111" s="783" t="s">
         <v>123</v>
       </c>
-      <c r="C111" s="740"/>
-      <c r="D111" s="740"/>
-      <c r="E111" s="740"/>
-      <c r="F111" s="740"/>
-      <c r="G111" s="740"/>
-      <c r="H111" s="740"/>
-      <c r="I111" s="740"/>
-      <c r="J111" s="740"/>
-      <c r="K111" s="740"/>
-      <c r="L111" s="741"/>
+      <c r="C111" s="784"/>
+      <c r="D111" s="784"/>
+      <c r="E111" s="784"/>
+      <c r="F111" s="784"/>
+      <c r="G111" s="784"/>
+      <c r="H111" s="784"/>
+      <c r="I111" s="784"/>
+      <c r="J111" s="784"/>
+      <c r="K111" s="784"/>
+      <c r="L111" s="785"/>
       <c r="M111" s="280">
         <f>SUM(M7:M110)</f>
         <v>123122416</v>
@@ -52344,11 +52438,11 @@
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="224"/>
-      <c r="B115" s="742" t="s">
+      <c r="B115" s="766" t="s">
         <v>128</v>
       </c>
-      <c r="C115" s="743"/>
-      <c r="D115" s="744"/>
+      <c r="C115" s="767"/>
+      <c r="D115" s="768"/>
       <c r="E115" s="225"/>
       <c r="F115" s="225"/>
       <c r="G115" s="226"/>
@@ -52360,11 +52454,11 @@
       <c r="A116" s="228">
         <v>1</v>
       </c>
-      <c r="B116" s="745" t="s">
+      <c r="B116" s="775" t="s">
         <v>0</v>
       </c>
-      <c r="C116" s="746"/>
-      <c r="D116" s="747"/>
+      <c r="C116" s="776"/>
+      <c r="D116" s="777"/>
       <c r="E116" s="229">
         <f>COUNTIF($N$7:$N$151,"Izin Akuntan Publik")</f>
         <v>4</v>
@@ -52384,11 +52478,11 @@
       <c r="A117" s="228">
         <v>2</v>
       </c>
-      <c r="B117" s="748" t="s">
+      <c r="B117" s="769" t="s">
         <v>1</v>
       </c>
-      <c r="C117" s="749"/>
-      <c r="D117" s="750"/>
+      <c r="C117" s="770"/>
+      <c r="D117" s="771"/>
       <c r="E117" s="229">
         <f>COUNTIF($N$7:$N$151,"Perpanjangan Izin Akuntan Publik")</f>
         <v>71</v>
@@ -52408,11 +52502,11 @@
       <c r="A118" s="228">
         <v>3</v>
       </c>
-      <c r="B118" s="748" t="s">
+      <c r="B118" s="769" t="s">
         <v>129</v>
       </c>
-      <c r="C118" s="749"/>
-      <c r="D118" s="750"/>
+      <c r="C118" s="770"/>
+      <c r="D118" s="771"/>
       <c r="E118" s="229"/>
       <c r="F118" s="229"/>
       <c r="G118" s="230"/>
@@ -52423,11 +52517,11 @@
     </row>
     <row r="119" spans="1:12">
       <c r="A119" s="228"/>
-      <c r="B119" s="748" t="s">
+      <c r="B119" s="769" t="s">
         <v>130</v>
       </c>
-      <c r="C119" s="749"/>
-      <c r="D119" s="750"/>
+      <c r="C119" s="770"/>
+      <c r="D119" s="771"/>
       <c r="E119" s="229">
         <f>COUNTIF($N$7:$N$151,"Izin Usaha KAP Perseorangan")</f>
         <v>0</v>
@@ -52445,11 +52539,11 @@
     </row>
     <row r="120" spans="1:12">
       <c r="A120" s="228"/>
-      <c r="B120" s="748" t="s">
+      <c r="B120" s="769" t="s">
         <v>131</v>
       </c>
-      <c r="C120" s="749"/>
-      <c r="D120" s="750"/>
+      <c r="C120" s="770"/>
+      <c r="D120" s="771"/>
       <c r="E120" s="229">
         <f>COUNTIF($N$7:$N$151,"Izin Usaha KAP Jumlah Rekan 2-4 orang")</f>
         <v>1</v>
@@ -52467,11 +52561,11 @@
     </row>
     <row r="121" spans="1:12">
       <c r="A121" s="228"/>
-      <c r="B121" s="748" t="s">
+      <c r="B121" s="769" t="s">
         <v>132</v>
       </c>
-      <c r="C121" s="749"/>
-      <c r="D121" s="750"/>
+      <c r="C121" s="770"/>
+      <c r="D121" s="771"/>
       <c r="E121" s="229">
         <f>COUNTIF($N$7:$N$151,"Izin Usaha KAP Jumlah Rekan 5 orang atau lebih")</f>
         <v>0</v>
@@ -52491,11 +52585,11 @@
       <c r="A122" s="233">
         <v>4</v>
       </c>
-      <c r="B122" s="751" t="s">
+      <c r="B122" s="772" t="s">
         <v>5</v>
       </c>
-      <c r="C122" s="752"/>
-      <c r="D122" s="753"/>
+      <c r="C122" s="773"/>
+      <c r="D122" s="774"/>
       <c r="E122" s="229">
         <f>COUNTIF($N$7:$N$151,"Izin Pendirian Cabang Kantor Akuntan Publik")</f>
         <v>0</v>
@@ -52513,11 +52607,11 @@
     </row>
     <row r="123" spans="1:12">
       <c r="A123" s="236"/>
-      <c r="B123" s="754" t="s">
+      <c r="B123" s="763" t="s">
         <v>133</v>
       </c>
-      <c r="C123" s="755"/>
-      <c r="D123" s="756"/>
+      <c r="C123" s="764"/>
+      <c r="D123" s="765"/>
       <c r="E123" s="237"/>
       <c r="F123" s="237"/>
       <c r="G123" s="238"/>
@@ -52530,11 +52624,11 @@
     </row>
     <row r="124" spans="1:12">
       <c r="A124" s="240"/>
-      <c r="B124" s="742" t="s">
+      <c r="B124" s="766" t="s">
         <v>134</v>
       </c>
-      <c r="C124" s="743"/>
-      <c r="D124" s="744"/>
+      <c r="C124" s="767"/>
+      <c r="D124" s="768"/>
       <c r="E124" s="241"/>
       <c r="F124" s="241"/>
       <c r="G124" s="242"/>
@@ -52546,11 +52640,11 @@
       <c r="A125" s="228">
         <v>5</v>
       </c>
-      <c r="B125" s="757" t="s">
+      <c r="B125" s="745" t="s">
         <v>6</v>
       </c>
-      <c r="C125" s="758"/>
-      <c r="D125" s="759"/>
+      <c r="C125" s="746"/>
+      <c r="D125" s="747"/>
       <c r="E125" s="229">
         <f>COUNTIF($N$7:$N$151,"Persetujuan Pencantuman Nama KAPA atau OAA Bersama-Sama dengan nama KAP")</f>
         <v>0</v>
@@ -52592,11 +52686,11 @@
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="246"/>
-      <c r="B127" s="754" t="s">
+      <c r="B127" s="763" t="s">
         <v>135</v>
       </c>
-      <c r="C127" s="755"/>
-      <c r="D127" s="756"/>
+      <c r="C127" s="764"/>
+      <c r="D127" s="765"/>
       <c r="E127" s="247"/>
       <c r="F127" s="247"/>
       <c r="G127" s="248"/>
@@ -52609,11 +52703,11 @@
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="236"/>
-      <c r="B128" s="754" t="s">
+      <c r="B128" s="763" t="s">
         <v>136</v>
       </c>
-      <c r="C128" s="755"/>
-      <c r="D128" s="756"/>
+      <c r="C128" s="764"/>
+      <c r="D128" s="765"/>
       <c r="E128" s="237"/>
       <c r="F128" s="237"/>
       <c r="G128" s="238"/>
@@ -52644,11 +52738,11 @@
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="240"/>
-      <c r="B130" s="742" t="s">
+      <c r="B130" s="766" t="s">
         <v>137</v>
       </c>
-      <c r="C130" s="743"/>
-      <c r="D130" s="744"/>
+      <c r="C130" s="767"/>
+      <c r="D130" s="768"/>
       <c r="E130" s="241"/>
       <c r="F130" s="241"/>
       <c r="G130" s="242"/>
@@ -52660,11 +52754,11 @@
       <c r="A131" s="228">
         <v>7</v>
       </c>
-      <c r="B131" s="757" t="s">
+      <c r="B131" s="745" t="s">
         <v>8</v>
       </c>
-      <c r="C131" s="758"/>
-      <c r="D131" s="759"/>
+      <c r="C131" s="746"/>
+      <c r="D131" s="747"/>
       <c r="E131" s="229">
         <v>1</v>
       </c>
@@ -52682,11 +52776,11 @@
       <c r="A132" s="228">
         <v>8</v>
       </c>
-      <c r="B132" s="757" t="s">
+      <c r="B132" s="745" t="s">
         <v>9</v>
       </c>
-      <c r="C132" s="758"/>
-      <c r="D132" s="759"/>
+      <c r="C132" s="746"/>
+      <c r="D132" s="747"/>
       <c r="E132" s="229">
         <v>26</v>
       </c>
@@ -52704,11 +52798,11 @@
       <c r="A133" s="233">
         <v>9</v>
       </c>
-      <c r="B133" s="774" t="s">
+      <c r="B133" s="748" t="s">
         <v>10</v>
       </c>
-      <c r="C133" s="775"/>
-      <c r="D133" s="776"/>
+      <c r="C133" s="749"/>
+      <c r="D133" s="750"/>
       <c r="E133" s="234">
         <v>1</v>
       </c>
@@ -52724,11 +52818,11 @@
     </row>
     <row r="134" spans="1:14" ht="30" customHeight="1">
       <c r="A134" s="236"/>
-      <c r="B134" s="777" t="s">
+      <c r="B134" s="751" t="s">
         <v>139</v>
       </c>
-      <c r="C134" s="778"/>
-      <c r="D134" s="779"/>
+      <c r="C134" s="752"/>
+      <c r="D134" s="753"/>
       <c r="E134" s="237"/>
       <c r="F134" s="237"/>
       <c r="G134" s="259"/>
@@ -52743,11 +52837,11 @@
       <c r="A135" s="261">
         <v>10</v>
       </c>
-      <c r="B135" s="780" t="s">
+      <c r="B135" s="754" t="s">
         <v>140</v>
       </c>
-      <c r="C135" s="781"/>
-      <c r="D135" s="782"/>
+      <c r="C135" s="755"/>
+      <c r="D135" s="756"/>
       <c r="E135" s="262">
         <v>0</v>
       </c>
@@ -52763,11 +52857,11 @@
       <c r="A136" s="265">
         <v>11</v>
       </c>
-      <c r="B136" s="783" t="s">
+      <c r="B136" s="757" t="s">
         <v>577</v>
       </c>
-      <c r="C136" s="784"/>
-      <c r="D136" s="785"/>
+      <c r="C136" s="758"/>
+      <c r="D136" s="759"/>
       <c r="E136" s="263">
         <v>0</v>
       </c>
@@ -52781,11 +52875,11 @@
       <c r="A137" s="265">
         <v>12</v>
       </c>
-      <c r="B137" s="763" t="s">
+      <c r="B137" s="734" t="s">
         <v>1039</v>
       </c>
-      <c r="C137" s="764"/>
-      <c r="D137" s="765"/>
+      <c r="C137" s="735"/>
+      <c r="D137" s="736"/>
       <c r="E137" s="263">
         <v>0</v>
       </c>
@@ -52799,11 +52893,11 @@
       <c r="A138" s="268">
         <v>13</v>
       </c>
-      <c r="B138" s="766" t="s">
+      <c r="B138" s="737" t="s">
         <v>141</v>
       </c>
-      <c r="C138" s="767"/>
-      <c r="D138" s="768"/>
+      <c r="C138" s="738"/>
+      <c r="D138" s="739"/>
       <c r="E138" s="269">
         <v>0</v>
       </c>
@@ -52814,12 +52908,12 @@
       <c r="J138" s="291"/>
     </row>
     <row r="139" spans="1:14">
-      <c r="A139" s="769" t="s">
+      <c r="A139" s="740" t="s">
         <v>142</v>
       </c>
-      <c r="B139" s="770"/>
-      <c r="C139" s="770"/>
-      <c r="D139" s="771"/>
+      <c r="B139" s="741"/>
+      <c r="C139" s="741"/>
+      <c r="D139" s="742"/>
       <c r="E139" s="272">
         <f>SUM(E116:E135)</f>
         <v>104</v>
@@ -52834,12 +52928,12 @@
       <c r="J139" s="294"/>
     </row>
     <row r="140" spans="1:14">
-      <c r="A140" s="772" t="s">
+      <c r="A140" s="743" t="s">
         <v>143</v>
       </c>
-      <c r="B140" s="773"/>
-      <c r="C140" s="773"/>
-      <c r="D140" s="771"/>
+      <c r="B140" s="744"/>
+      <c r="C140" s="744"/>
+      <c r="D140" s="742"/>
       <c r="E140" s="216">
         <f>SUM(E116:E135)</f>
         <v>104</v>
@@ -52862,9 +52956,9 @@
         <v>11</v>
       </c>
       <c r="C142" s="787"/>
-      <c r="D142" s="788"/>
-      <c r="E142" s="789"/>
-      <c r="F142" s="790"/>
+      <c r="D142" s="790"/>
+      <c r="E142" s="788"/>
+      <c r="F142" s="789"/>
       <c r="G142" s="275"/>
       <c r="H142" s="276">
         <f>H128</f>
@@ -52878,9 +52972,9 @@
         <v>13</v>
       </c>
       <c r="C143" s="787"/>
-      <c r="D143" s="789"/>
-      <c r="E143" s="789"/>
-      <c r="F143" s="790"/>
+      <c r="D143" s="788"/>
+      <c r="E143" s="788"/>
+      <c r="F143" s="789"/>
       <c r="G143" s="275"/>
       <c r="H143" s="276">
         <f>H134</f>
@@ -52894,9 +52988,9 @@
         <v>1228</v>
       </c>
       <c r="C144" s="787"/>
-      <c r="D144" s="788"/>
-      <c r="E144" s="789"/>
-      <c r="F144" s="790"/>
+      <c r="D144" s="790"/>
+      <c r="E144" s="788"/>
+      <c r="F144" s="789"/>
       <c r="G144" s="275"/>
       <c r="H144" s="276">
         <f>H135</f>
@@ -52910,9 +53004,9 @@
         <v>12</v>
       </c>
       <c r="C145" s="787"/>
-      <c r="D145" s="788"/>
-      <c r="E145" s="789"/>
-      <c r="F145" s="790"/>
+      <c r="D145" s="790"/>
+      <c r="E145" s="788"/>
+      <c r="F145" s="789"/>
       <c r="G145" s="275"/>
       <c r="H145" s="276">
         <f>H136</f>
@@ -52926,9 +53020,9 @@
         <v>1040</v>
       </c>
       <c r="C146" s="787"/>
-      <c r="D146" s="788"/>
-      <c r="E146" s="789"/>
-      <c r="F146" s="790"/>
+      <c r="D146" s="790"/>
+      <c r="E146" s="788"/>
+      <c r="F146" s="789"/>
       <c r="G146" s="275"/>
       <c r="H146" s="276">
         <f>H137</f>
@@ -52942,9 +53036,9 @@
         <v>1229</v>
       </c>
       <c r="C147" s="787"/>
-      <c r="D147" s="788"/>
-      <c r="E147" s="789"/>
-      <c r="F147" s="790"/>
+      <c r="D147" s="790"/>
+      <c r="E147" s="788"/>
+      <c r="F147" s="789"/>
       <c r="G147" s="275"/>
       <c r="H147" s="276">
         <f>H138</f>
@@ -52970,41 +53064,41 @@
   </sheetData>
   <autoFilter ref="A6:Q111" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
   <mergeCells count="35">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="B111:L111"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B122:D122"/>
+    <mergeCell ref="B123:D123"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="B125:D125"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="B127:D127"/>
+    <mergeCell ref="B128:D128"/>
+    <mergeCell ref="B130:D130"/>
+    <mergeCell ref="B131:D131"/>
+    <mergeCell ref="B132:D132"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B134:D134"/>
+    <mergeCell ref="B135:D135"/>
+    <mergeCell ref="B136:D136"/>
+    <mergeCell ref="B137:D137"/>
+    <mergeCell ref="B138:D138"/>
+    <mergeCell ref="A139:D139"/>
+    <mergeCell ref="A140:D140"/>
+    <mergeCell ref="B142:F142"/>
     <mergeCell ref="B143:F143"/>
     <mergeCell ref="B144:F144"/>
     <mergeCell ref="B145:F145"/>
     <mergeCell ref="B146:F146"/>
     <mergeCell ref="B147:F147"/>
-    <mergeCell ref="B137:D137"/>
-    <mergeCell ref="B138:D138"/>
-    <mergeCell ref="A139:D139"/>
-    <mergeCell ref="A140:D140"/>
-    <mergeCell ref="B142:F142"/>
-    <mergeCell ref="B132:D132"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="B134:D134"/>
-    <mergeCell ref="B135:D135"/>
-    <mergeCell ref="B136:D136"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="B127:D127"/>
-    <mergeCell ref="B128:D128"/>
-    <mergeCell ref="B130:D130"/>
-    <mergeCell ref="B131:D131"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B122:D122"/>
-    <mergeCell ref="B123:D123"/>
-    <mergeCell ref="B124:D124"/>
-    <mergeCell ref="B125:D125"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="B118:D118"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B120:D120"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="B111:L111"/>
-    <mergeCell ref="B115:D115"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.196850393700787" footer="0.196850393700787"/>
   <pageSetup paperSize="9" scale="52" orientation="landscape" r:id="rId1"/>
@@ -53047,64 +53141,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="734" t="s">
+      <c r="A1" s="778" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="734"/>
-      <c r="C1" s="734"/>
-      <c r="D1" s="734"/>
-      <c r="E1" s="734"/>
-      <c r="F1" s="734"/>
-      <c r="G1" s="734"/>
-      <c r="H1" s="734"/>
-      <c r="I1" s="735"/>
-      <c r="J1" s="734"/>
-      <c r="K1" s="734"/>
-      <c r="L1" s="734"/>
-      <c r="M1" s="734"/>
-      <c r="N1" s="734"/>
+      <c r="B1" s="778"/>
+      <c r="C1" s="778"/>
+      <c r="D1" s="778"/>
+      <c r="E1" s="778"/>
+      <c r="F1" s="778"/>
+      <c r="G1" s="778"/>
+      <c r="H1" s="778"/>
+      <c r="I1" s="779"/>
+      <c r="J1" s="778"/>
+      <c r="K1" s="778"/>
+      <c r="L1" s="778"/>
+      <c r="M1" s="778"/>
+      <c r="N1" s="778"/>
       <c r="O1" s="181"/>
       <c r="P1" s="181"/>
       <c r="Q1" s="181"/>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="736" t="s">
+      <c r="A2" s="780" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="736"/>
-      <c r="C2" s="736"/>
-      <c r="D2" s="736"/>
-      <c r="E2" s="736"/>
-      <c r="F2" s="736"/>
-      <c r="G2" s="736"/>
-      <c r="H2" s="736"/>
-      <c r="I2" s="737"/>
-      <c r="J2" s="736"/>
-      <c r="K2" s="736"/>
-      <c r="L2" s="736"/>
-      <c r="M2" s="736"/>
-      <c r="N2" s="736"/>
+      <c r="B2" s="780"/>
+      <c r="C2" s="780"/>
+      <c r="D2" s="780"/>
+      <c r="E2" s="780"/>
+      <c r="F2" s="780"/>
+      <c r="G2" s="780"/>
+      <c r="H2" s="780"/>
+      <c r="I2" s="781"/>
+      <c r="J2" s="780"/>
+      <c r="K2" s="780"/>
+      <c r="L2" s="780"/>
+      <c r="M2" s="780"/>
+      <c r="N2" s="780"/>
       <c r="O2" s="194"/>
       <c r="P2" s="194"/>
       <c r="Q2" s="194"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="738" t="s">
+      <c r="A3" s="782" t="s">
         <v>1230</v>
       </c>
-      <c r="B3" s="738"/>
-      <c r="C3" s="738"/>
-      <c r="D3" s="738"/>
-      <c r="E3" s="738"/>
-      <c r="F3" s="738"/>
-      <c r="G3" s="738"/>
-      <c r="H3" s="738"/>
-      <c r="I3" s="737"/>
-      <c r="J3" s="738"/>
-      <c r="K3" s="738"/>
-      <c r="L3" s="738"/>
-      <c r="M3" s="738"/>
-      <c r="N3" s="738"/>
+      <c r="B3" s="782"/>
+      <c r="C3" s="782"/>
+      <c r="D3" s="782"/>
+      <c r="E3" s="782"/>
+      <c r="F3" s="782"/>
+      <c r="G3" s="782"/>
+      <c r="H3" s="782"/>
+      <c r="I3" s="781"/>
+      <c r="J3" s="782"/>
+      <c r="K3" s="782"/>
+      <c r="L3" s="782"/>
+      <c r="M3" s="782"/>
+      <c r="N3" s="782"/>
       <c r="O3" s="195"/>
       <c r="P3" s="195"/>
       <c r="Q3" s="195"/>
@@ -58170,19 +58264,19 @@
     </row>
     <row r="123" spans="1:15" s="175" customFormat="1" ht="27.75" customHeight="1">
       <c r="A123" s="211"/>
-      <c r="B123" s="739" t="s">
+      <c r="B123" s="783" t="s">
         <v>123</v>
       </c>
-      <c r="C123" s="740"/>
-      <c r="D123" s="740"/>
-      <c r="E123" s="740"/>
-      <c r="F123" s="740"/>
-      <c r="G123" s="740"/>
-      <c r="H123" s="740"/>
-      <c r="I123" s="740"/>
-      <c r="J123" s="740"/>
-      <c r="K123" s="740"/>
-      <c r="L123" s="741"/>
+      <c r="C123" s="784"/>
+      <c r="D123" s="784"/>
+      <c r="E123" s="784"/>
+      <c r="F123" s="784"/>
+      <c r="G123" s="784"/>
+      <c r="H123" s="784"/>
+      <c r="I123" s="784"/>
+      <c r="J123" s="784"/>
+      <c r="K123" s="784"/>
+      <c r="L123" s="785"/>
       <c r="M123" s="280">
         <f>SUM(M7:M122)</f>
         <v>143100000</v>
@@ -58228,11 +58322,11 @@
     </row>
     <row r="127" spans="1:15">
       <c r="A127" s="224"/>
-      <c r="B127" s="742" t="s">
+      <c r="B127" s="766" t="s">
         <v>128</v>
       </c>
-      <c r="C127" s="743"/>
-      <c r="D127" s="744"/>
+      <c r="C127" s="767"/>
+      <c r="D127" s="768"/>
       <c r="E127" s="225"/>
       <c r="F127" s="225"/>
       <c r="G127" s="226"/>
@@ -58244,11 +58338,11 @@
       <c r="A128" s="228">
         <v>1</v>
       </c>
-      <c r="B128" s="745" t="s">
+      <c r="B128" s="775" t="s">
         <v>0</v>
       </c>
-      <c r="C128" s="746"/>
-      <c r="D128" s="747"/>
+      <c r="C128" s="776"/>
+      <c r="D128" s="777"/>
       <c r="E128" s="229">
         <f>COUNTIF($N$7:$N$163,"Izin Akuntan Publik")</f>
         <v>6</v>
@@ -58268,11 +58362,11 @@
       <c r="A129" s="228">
         <v>2</v>
       </c>
-      <c r="B129" s="748" t="s">
+      <c r="B129" s="769" t="s">
         <v>1</v>
       </c>
-      <c r="C129" s="749"/>
-      <c r="D129" s="750"/>
+      <c r="C129" s="770"/>
+      <c r="D129" s="771"/>
       <c r="E129" s="229">
         <f>COUNTIF($N$7:$N$163,"Perpanjangan Izin Akuntan Publik")</f>
         <v>64</v>
@@ -58292,11 +58386,11 @@
       <c r="A130" s="228">
         <v>3</v>
       </c>
-      <c r="B130" s="748" t="s">
+      <c r="B130" s="769" t="s">
         <v>129</v>
       </c>
-      <c r="C130" s="749"/>
-      <c r="D130" s="750"/>
+      <c r="C130" s="770"/>
+      <c r="D130" s="771"/>
       <c r="E130" s="229"/>
       <c r="F130" s="229"/>
       <c r="G130" s="230"/>
@@ -58307,11 +58401,11 @@
     </row>
     <row r="131" spans="1:14">
       <c r="A131" s="228"/>
-      <c r="B131" s="748" t="s">
+      <c r="B131" s="769" t="s">
         <v>130</v>
       </c>
-      <c r="C131" s="749"/>
-      <c r="D131" s="750"/>
+      <c r="C131" s="770"/>
+      <c r="D131" s="771"/>
       <c r="E131" s="229">
         <f>COUNTIF($N$7:$N$163,"Izin Usaha KAP Perseorangan")</f>
         <v>0</v>
@@ -58329,11 +58423,11 @@
     </row>
     <row r="132" spans="1:14">
       <c r="A132" s="228"/>
-      <c r="B132" s="748" t="s">
+      <c r="B132" s="769" t="s">
         <v>131</v>
       </c>
-      <c r="C132" s="749"/>
-      <c r="D132" s="750"/>
+      <c r="C132" s="770"/>
+      <c r="D132" s="771"/>
       <c r="E132" s="229">
         <f>COUNTIF($N$7:$N$163,"Izin Usaha KAP Jumlah Rekan 2-4 orang")</f>
         <v>3</v>
@@ -58351,11 +58445,11 @@
     </row>
     <row r="133" spans="1:14">
       <c r="A133" s="228"/>
-      <c r="B133" s="748" t="s">
+      <c r="B133" s="769" t="s">
         <v>132</v>
       </c>
-      <c r="C133" s="749"/>
-      <c r="D133" s="750"/>
+      <c r="C133" s="770"/>
+      <c r="D133" s="771"/>
       <c r="E133" s="229">
         <f>COUNTIF($N$7:$N$163,"Izin Usaha KAP Jumlah Rekan 5 orang atau lebih")</f>
         <v>0</v>
@@ -58375,11 +58469,11 @@
       <c r="A134" s="233">
         <v>4</v>
       </c>
-      <c r="B134" s="751" t="s">
+      <c r="B134" s="772" t="s">
         <v>5</v>
       </c>
-      <c r="C134" s="752"/>
-      <c r="D134" s="753"/>
+      <c r="C134" s="773"/>
+      <c r="D134" s="774"/>
       <c r="E134" s="229">
         <f>COUNTIF($N$7:$N$163,"Izin Pendirian Cabang Kantor Akuntan Publik")</f>
         <v>3</v>
@@ -58397,11 +58491,11 @@
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="236"/>
-      <c r="B135" s="754" t="s">
+      <c r="B135" s="763" t="s">
         <v>133</v>
       </c>
-      <c r="C135" s="755"/>
-      <c r="D135" s="756"/>
+      <c r="C135" s="764"/>
+      <c r="D135" s="765"/>
       <c r="E135" s="237"/>
       <c r="F135" s="237"/>
       <c r="G135" s="238"/>
@@ -58414,11 +58508,11 @@
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="240"/>
-      <c r="B136" s="742" t="s">
+      <c r="B136" s="766" t="s">
         <v>134</v>
       </c>
-      <c r="C136" s="743"/>
-      <c r="D136" s="744"/>
+      <c r="C136" s="767"/>
+      <c r="D136" s="768"/>
       <c r="E136" s="241"/>
       <c r="F136" s="241"/>
       <c r="G136" s="242"/>
@@ -58430,11 +58524,11 @@
       <c r="A137" s="228">
         <v>5</v>
       </c>
-      <c r="B137" s="757" t="s">
+      <c r="B137" s="745" t="s">
         <v>6</v>
       </c>
-      <c r="C137" s="758"/>
-      <c r="D137" s="759"/>
+      <c r="C137" s="746"/>
+      <c r="D137" s="747"/>
       <c r="E137" s="229">
         <f>COUNTIF($N$7:$N$163,"Persetujuan Pencantuman Nama KAPA atau OAA Bersama-Sama dengan nama KAP")</f>
         <v>1</v>
@@ -58476,11 +58570,11 @@
     </row>
     <row r="139" spans="1:14">
       <c r="A139" s="246"/>
-      <c r="B139" s="754" t="s">
+      <c r="B139" s="763" t="s">
         <v>135</v>
       </c>
-      <c r="C139" s="755"/>
-      <c r="D139" s="756"/>
+      <c r="C139" s="764"/>
+      <c r="D139" s="765"/>
       <c r="E139" s="247"/>
       <c r="F139" s="247"/>
       <c r="G139" s="248"/>
@@ -58493,11 +58587,11 @@
     </row>
     <row r="140" spans="1:14">
       <c r="A140" s="236"/>
-      <c r="B140" s="754" t="s">
+      <c r="B140" s="763" t="s">
         <v>136</v>
       </c>
-      <c r="C140" s="755"/>
-      <c r="D140" s="756"/>
+      <c r="C140" s="764"/>
+      <c r="D140" s="765"/>
       <c r="E140" s="237"/>
       <c r="F140" s="237"/>
       <c r="G140" s="238"/>
@@ -58528,11 +58622,11 @@
     </row>
     <row r="142" spans="1:14">
       <c r="A142" s="240"/>
-      <c r="B142" s="742" t="s">
+      <c r="B142" s="766" t="s">
         <v>137</v>
       </c>
-      <c r="C142" s="743"/>
-      <c r="D142" s="744"/>
+      <c r="C142" s="767"/>
+      <c r="D142" s="768"/>
       <c r="E142" s="241"/>
       <c r="F142" s="241"/>
       <c r="G142" s="242"/>
@@ -58544,11 +58638,11 @@
       <c r="A143" s="228">
         <v>7</v>
       </c>
-      <c r="B143" s="757" t="s">
+      <c r="B143" s="745" t="s">
         <v>8</v>
       </c>
-      <c r="C143" s="758"/>
-      <c r="D143" s="759"/>
+      <c r="C143" s="746"/>
+      <c r="D143" s="747"/>
       <c r="E143" s="229">
         <v>4</v>
       </c>
@@ -58566,11 +58660,11 @@
       <c r="A144" s="228">
         <v>8</v>
       </c>
-      <c r="B144" s="757" t="s">
+      <c r="B144" s="745" t="s">
         <v>9</v>
       </c>
-      <c r="C144" s="758"/>
-      <c r="D144" s="759"/>
+      <c r="C144" s="746"/>
+      <c r="D144" s="747"/>
       <c r="E144" s="229">
         <v>34</v>
       </c>
@@ -58588,11 +58682,11 @@
       <c r="A145" s="233">
         <v>9</v>
       </c>
-      <c r="B145" s="774" t="s">
+      <c r="B145" s="748" t="s">
         <v>10</v>
       </c>
-      <c r="C145" s="775"/>
-      <c r="D145" s="776"/>
+      <c r="C145" s="749"/>
+      <c r="D145" s="750"/>
       <c r="E145" s="234">
         <v>0</v>
       </c>
@@ -58608,11 +58702,11 @@
     </row>
     <row r="146" spans="1:10" ht="30" customHeight="1">
       <c r="A146" s="236"/>
-      <c r="B146" s="777" t="s">
+      <c r="B146" s="751" t="s">
         <v>139</v>
       </c>
-      <c r="C146" s="778"/>
-      <c r="D146" s="779"/>
+      <c r="C146" s="752"/>
+      <c r="D146" s="753"/>
       <c r="E146" s="237"/>
       <c r="F146" s="237"/>
       <c r="G146" s="259"/>
@@ -58627,11 +58721,11 @@
       <c r="A147" s="261">
         <v>10</v>
       </c>
-      <c r="B147" s="780" t="s">
+      <c r="B147" s="754" t="s">
         <v>140</v>
       </c>
-      <c r="C147" s="781"/>
-      <c r="D147" s="782"/>
+      <c r="C147" s="755"/>
+      <c r="D147" s="756"/>
       <c r="E147" s="262">
         <v>0</v>
       </c>
@@ -58647,11 +58741,11 @@
       <c r="A148" s="265">
         <v>11</v>
       </c>
-      <c r="B148" s="783" t="s">
+      <c r="B148" s="757" t="s">
         <v>577</v>
       </c>
-      <c r="C148" s="784"/>
-      <c r="D148" s="785"/>
+      <c r="C148" s="758"/>
+      <c r="D148" s="759"/>
       <c r="E148" s="263">
         <v>0</v>
       </c>
@@ -58665,11 +58759,11 @@
       <c r="A149" s="265">
         <v>12</v>
       </c>
-      <c r="B149" s="763" t="s">
+      <c r="B149" s="734" t="s">
         <v>1039</v>
       </c>
-      <c r="C149" s="764"/>
-      <c r="D149" s="765"/>
+      <c r="C149" s="735"/>
+      <c r="D149" s="736"/>
       <c r="E149" s="263">
         <v>0</v>
       </c>
@@ -58683,11 +58777,11 @@
       <c r="A150" s="268">
         <v>13</v>
       </c>
-      <c r="B150" s="766" t="s">
+      <c r="B150" s="737" t="s">
         <v>141</v>
       </c>
-      <c r="C150" s="767"/>
-      <c r="D150" s="768"/>
+      <c r="C150" s="738"/>
+      <c r="D150" s="739"/>
       <c r="E150" s="269">
         <v>0</v>
       </c>
@@ -58698,12 +58792,12 @@
       <c r="J150" s="291"/>
     </row>
     <row r="151" spans="1:10">
-      <c r="A151" s="769" t="s">
+      <c r="A151" s="740" t="s">
         <v>142</v>
       </c>
-      <c r="B151" s="770"/>
-      <c r="C151" s="770"/>
-      <c r="D151" s="771"/>
+      <c r="B151" s="741"/>
+      <c r="C151" s="741"/>
+      <c r="D151" s="742"/>
       <c r="E151" s="272">
         <f>SUM(E128:E147)</f>
         <v>116</v>
@@ -58718,12 +58812,12 @@
       <c r="J151" s="294"/>
     </row>
     <row r="152" spans="1:10">
-      <c r="A152" s="772" t="s">
+      <c r="A152" s="743" t="s">
         <v>143</v>
       </c>
-      <c r="B152" s="773"/>
-      <c r="C152" s="773"/>
-      <c r="D152" s="771"/>
+      <c r="B152" s="744"/>
+      <c r="C152" s="744"/>
+      <c r="D152" s="742"/>
       <c r="E152" s="216">
         <f>SUM(E128:E147)</f>
         <v>116</v>
@@ -58746,9 +58840,9 @@
         <v>11</v>
       </c>
       <c r="C154" s="787"/>
-      <c r="D154" s="788"/>
-      <c r="E154" s="789"/>
-      <c r="F154" s="790"/>
+      <c r="D154" s="790"/>
+      <c r="E154" s="788"/>
+      <c r="F154" s="789"/>
       <c r="G154" s="275"/>
       <c r="H154" s="276">
         <f>H140</f>
@@ -58762,9 +58856,9 @@
         <v>13</v>
       </c>
       <c r="C155" s="787"/>
-      <c r="D155" s="789"/>
-      <c r="E155" s="789"/>
-      <c r="F155" s="790"/>
+      <c r="D155" s="788"/>
+      <c r="E155" s="788"/>
+      <c r="F155" s="789"/>
       <c r="G155" s="275"/>
       <c r="H155" s="276">
         <f t="shared" ref="H155:H159" si="1">H146</f>
@@ -58778,9 +58872,9 @@
         <v>1228</v>
       </c>
       <c r="C156" s="787"/>
-      <c r="D156" s="788"/>
-      <c r="E156" s="789"/>
-      <c r="F156" s="790"/>
+      <c r="D156" s="790"/>
+      <c r="E156" s="788"/>
+      <c r="F156" s="789"/>
       <c r="G156" s="275"/>
       <c r="H156" s="276">
         <f t="shared" si="1"/>
@@ -58794,9 +58888,9 @@
         <v>12</v>
       </c>
       <c r="C157" s="787"/>
-      <c r="D157" s="788"/>
-      <c r="E157" s="789"/>
-      <c r="F157" s="790"/>
+      <c r="D157" s="790"/>
+      <c r="E157" s="788"/>
+      <c r="F157" s="789"/>
       <c r="G157" s="275"/>
       <c r="H157" s="276">
         <f t="shared" si="1"/>
@@ -58810,9 +58904,9 @@
         <v>1040</v>
       </c>
       <c r="C158" s="787"/>
-      <c r="D158" s="788"/>
-      <c r="E158" s="789"/>
-      <c r="F158" s="790"/>
+      <c r="D158" s="790"/>
+      <c r="E158" s="788"/>
+      <c r="F158" s="789"/>
       <c r="G158" s="275"/>
       <c r="H158" s="276">
         <f t="shared" si="1"/>
@@ -58826,9 +58920,9 @@
         <v>1229</v>
       </c>
       <c r="C159" s="787"/>
-      <c r="D159" s="788"/>
-      <c r="E159" s="789"/>
-      <c r="F159" s="790"/>
+      <c r="D159" s="790"/>
+      <c r="E159" s="788"/>
+      <c r="F159" s="789"/>
       <c r="G159" s="275"/>
       <c r="H159" s="276">
         <f t="shared" si="1"/>
@@ -58854,41 +58948,41 @@
   </sheetData>
   <autoFilter ref="A6:Q123" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
   <mergeCells count="35">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="B123:L123"/>
+    <mergeCell ref="B127:D127"/>
+    <mergeCell ref="B128:D128"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="B130:D130"/>
+    <mergeCell ref="B131:D131"/>
+    <mergeCell ref="B132:D132"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B134:D134"/>
+    <mergeCell ref="B135:D135"/>
+    <mergeCell ref="B136:D136"/>
+    <mergeCell ref="B137:D137"/>
+    <mergeCell ref="B138:D138"/>
+    <mergeCell ref="B139:D139"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="B142:D142"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="B144:D144"/>
+    <mergeCell ref="B145:D145"/>
+    <mergeCell ref="B146:D146"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="B148:D148"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="B150:D150"/>
+    <mergeCell ref="A151:D151"/>
+    <mergeCell ref="A152:D152"/>
+    <mergeCell ref="B154:F154"/>
     <mergeCell ref="B155:F155"/>
     <mergeCell ref="B156:F156"/>
     <mergeCell ref="B157:F157"/>
     <mergeCell ref="B158:F158"/>
     <mergeCell ref="B159:F159"/>
-    <mergeCell ref="B149:D149"/>
-    <mergeCell ref="B150:D150"/>
-    <mergeCell ref="A151:D151"/>
-    <mergeCell ref="A152:D152"/>
-    <mergeCell ref="B154:F154"/>
-    <mergeCell ref="B144:D144"/>
-    <mergeCell ref="B145:D145"/>
-    <mergeCell ref="B146:D146"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="B148:D148"/>
-    <mergeCell ref="B138:D138"/>
-    <mergeCell ref="B139:D139"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="B142:D142"/>
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="B134:D134"/>
-    <mergeCell ref="B135:D135"/>
-    <mergeCell ref="B136:D136"/>
-    <mergeCell ref="B137:D137"/>
-    <mergeCell ref="B128:D128"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="B130:D130"/>
-    <mergeCell ref="B131:D131"/>
-    <mergeCell ref="B132:D132"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="B123:L123"/>
-    <mergeCell ref="B127:D127"/>
   </mergeCells>
   <pageMargins left="0.59055118110236204" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.196850393700787" footer="0.196850393700787"/>
   <pageSetup paperSize="9" scale="52" orientation="landscape" r:id="rId1"/>
